--- a/not_gmacs_2/fiddling with parameters.xlsx
+++ b/not_gmacs_2/fiddling with parameters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cody\Desktop\snow20\not_gmacs_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gmacs_term\not_gmacs_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10596" windowHeight="7020" tabRatio="684" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10596" windowHeight="7020" tabRatio="684" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2016sc" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="152">
   <si>
     <t># Number of parameters = 327 Objective function value = 7766.45  Maximum gradient component = 0.00411848</t>
   </si>
@@ -459,6 +459,27 @@
   </si>
   <si>
     <t>fem_mat</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>old code</t>
+  </si>
+  <si>
+    <t>len bin</t>
+  </si>
+  <si>
+    <t>in_alpha</t>
+  </si>
+  <si>
+    <t>devia</t>
+  </si>
+  <si>
+    <t>reclen</t>
   </si>
 </sst>
 </file>
@@ -2204,8 +2225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2627,6 +2648,12 @@
       <c r="C21">
         <v>11.801595789</v>
       </c>
+      <c r="E21">
+        <v>-9.8999579077799993</v>
+      </c>
+      <c r="F21">
+        <v>-9.8999579077799993</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22">
@@ -2635,6 +2662,12 @@
       <c r="C22">
         <v>11.7595130617</v>
       </c>
+      <c r="E22">
+        <v>-9.8999579077799993</v>
+      </c>
+      <c r="F22">
+        <v>-9.8999579077799993</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23">
@@ -2643,6 +2676,12 @@
       <c r="C23">
         <v>11.607895517499999</v>
       </c>
+      <c r="E23">
+        <v>-9.8999579077799993</v>
+      </c>
+      <c r="F23">
+        <v>-9.8999579077799993</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24">
@@ -2651,6 +2690,12 @@
       <c r="C24">
         <v>11.275088521200001</v>
       </c>
+      <c r="E24">
+        <v>-9.8999579077799993</v>
+      </c>
+      <c r="F24">
+        <v>-9.8999579077799993</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25">
@@ -2659,6 +2704,12 @@
       <c r="C25">
         <v>10.6175423654</v>
       </c>
+      <c r="E25">
+        <v>-9.8999579077799993</v>
+      </c>
+      <c r="F25">
+        <v>-9.8999579077799993</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26">
@@ -2667,6 +2718,12 @@
       <c r="C26">
         <v>9.7123235722899999</v>
       </c>
+      <c r="E26">
+        <v>-9.8999579077799993</v>
+      </c>
+      <c r="F26">
+        <v>-9.8999579077799993</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27">
@@ -2675,6 +2732,12 @@
       <c r="C27">
         <v>8.6431693632099993</v>
       </c>
+      <c r="E27">
+        <v>-9.8999579077799993</v>
+      </c>
+      <c r="F27">
+        <v>-9.8999579077799993</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28">
@@ -2683,6 +2746,12 @@
       <c r="C28">
         <v>7.47839448604</v>
       </c>
+      <c r="E28">
+        <v>-9.8999579077799993</v>
+      </c>
+      <c r="F28">
+        <v>-9.8999579077799993</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29">
@@ -2691,6 +2760,12 @@
       <c r="C29">
         <v>6.2718374921900004</v>
       </c>
+      <c r="E29">
+        <v>-9.8999579077799993</v>
+      </c>
+      <c r="F29">
+        <v>-9.8999579077799993</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30">
@@ -2698,6 +2773,12 @@
       </c>
       <c r="C30">
         <v>5.0551975606799999</v>
+      </c>
+      <c r="E30">
+        <v>-9.8999579077799993</v>
+      </c>
+      <c r="F30">
+        <v>-9.8999579077799993</v>
       </c>
     </row>
   </sheetData>
@@ -2709,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -3338,76 +3419,393 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>122</v>
       </c>
       <c r="B1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>27.5</v>
       </c>
       <c r="B2">
         <v>0.155832</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>27.5</v>
+      </c>
+      <c r="E2">
+        <f>D2+2.5-$D$2</f>
+        <v>2.5</v>
+      </c>
+      <c r="F2">
+        <f>(E2^($J$4-1))*EXP(-E2/$J$2)</f>
+        <v>2.9833449046478431</v>
+      </c>
+      <c r="G2">
+        <f>F2/$F$24</f>
+        <v>0.1558317289228196</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>32.5</v>
       </c>
       <c r="B3">
         <v>0.35026000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>32.5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E23" si="0">D3+2.5-$D$2</f>
+        <v>7.5</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F14" si="1">(E3^($J$4-1))*EXP(-E3/$J$2)</f>
+        <v>6.705601108624041</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="2">F3/$F$24</f>
+        <v>0.3502596741649644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>37.5</v>
       </c>
       <c r="B4">
         <v>0.26151000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>37.5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>5.0065207265136253</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0.26151008536930859</v>
+      </c>
+      <c r="I4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4">
+        <f>J1/J2</f>
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>42.5</v>
       </c>
       <c r="B5">
         <v>0.14080300000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>42.5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2.6956157360228947</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0.14080251331368981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>47.5</v>
       </c>
       <c r="B6">
         <v>6.4623200000000006E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>47.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1.2371881760627037</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>6.4623159118599588E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>52.5</v>
       </c>
       <c r="B7">
         <v>2.6972800000000002E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>52.5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.51638573659414322</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>2.6972839110618263E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>57.5</v>
       </c>
       <c r="B8">
         <v>0</v>
+      </c>
+      <c r="D8">
+        <v>57.5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>62.5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>67.5</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>72.5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>77.5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>82.5</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>87.5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>92.5</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>97.5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>72.5</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>102.5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>77.5</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>107.5</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>112.5</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>117.5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>122.5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>97.5</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>127.5</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>102.5</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>132.5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>107.5</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <f>SUM(F2:F23)</f>
+        <v>19.144656388465247</v>
       </c>
     </row>
   </sheetData>
@@ -3512,8 +3910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/not_gmacs_2/fiddling with parameters.xlsx
+++ b/not_gmacs_2/fiddling with parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10596" windowHeight="7020" tabRatio="684" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10596" windowHeight="7020" tabRatio="684"/>
   </bookViews>
   <sheets>
     <sheet name="2016sc" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,41 @@
     <sheet name="Natural mortality" sheetId="5" r:id="rId5"/>
     <sheet name="maturity" sheetId="2" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'Natural mortality'!$D$9</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'Natural mortality'!$E$9</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0.322415</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="159">
   <si>
     <t># Number of parameters = 327 Objective function value = 7766.45  Maximum gradient component = 0.00411848</t>
   </si>
@@ -480,6 +509,27 @@
   </si>
   <si>
     <t>reclen</t>
+  </si>
+  <si>
+    <t>mature male</t>
+  </si>
+  <si>
+    <t>mature female</t>
+  </si>
+  <si>
+    <t>needed multiplier</t>
+  </si>
+  <si>
+    <t>maturity_est</t>
+  </si>
+  <si>
+    <t>mat_new</t>
+  </si>
+  <si>
+    <t>mat_old</t>
+  </si>
+  <si>
+    <t>imm_new</t>
   </si>
 </sst>
 </file>
@@ -1297,13 +1347,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C177"/>
+  <dimension ref="A1:R177"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:A63"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1705,12 +1758,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.50000005000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>53</v>
       </c>
@@ -1718,7 +1771,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4.6607123776700004</v>
       </c>
@@ -1727,143 +1780,365 @@
         <v>105.71136175330247</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4.5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>57</v>
       </c>
       <c r="C90" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>0.200110432177</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <f>1/A91</f>
+        <v>4.9972407191419608</v>
+      </c>
+      <c r="D91">
+        <f>LN(C91)</f>
+        <v>1.6088859039338306</v>
+      </c>
+      <c r="G91">
+        <v>27.5</v>
+      </c>
+      <c r="H91">
+        <f>1/(1+EXP(-$A$95*(G91-$A$97)))</f>
+        <v>2.8329918833784871E-14</v>
+      </c>
+      <c r="J91" s="1">
+        <v>4.5412700000000001E-21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G92">
+        <v>32.5</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ref="H92:H112" si="0">1/(1+EXP(-$A$95*(G92-$A$97)))</f>
+        <v>2.7578275686439838E-13</v>
+      </c>
+      <c r="J92" s="1">
+        <v>1.2023599999999999E-19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G93">
+        <v>37.5</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="0"/>
+        <v>2.6846574968955772E-12</v>
+      </c>
+      <c r="J93" s="1">
+        <v>3.1833800000000001E-18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C94" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G94">
+        <v>42.5</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="0"/>
+        <v>2.6134287572699125E-11</v>
+      </c>
+      <c r="J94" s="1">
+        <v>8.4283800000000004E-17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.45513899883199999</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <f>1/A95</f>
+        <v>2.1971309919963988</v>
+      </c>
+      <c r="D95">
+        <f>LN(C95)</f>
+        <v>0.78715241474588604</v>
+      </c>
+      <c r="G95">
+        <v>47.5</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="0"/>
+        <v>2.5440898423073917E-10</v>
+      </c>
+      <c r="J95" s="1">
+        <v>2.2315000000000001E-15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G96">
+        <v>52.5</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="0"/>
+        <v>2.4765906071943536E-9</v>
+      </c>
+      <c r="J96" s="1">
+        <v>5.9080900000000001E-14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96.0391891843</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <f>LN(A97)</f>
+        <v>4.5647563288382393</v>
+      </c>
+      <c r="G97">
+        <v>57.5</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="0"/>
+        <v>2.4108822002248582E-8</v>
+      </c>
+      <c r="J97" s="1">
+        <v>1.5641799999999999E-12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G98">
+        <v>62.5</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="0"/>
+        <v>2.3469167121238143E-7</v>
+      </c>
+      <c r="J98" s="1">
+        <v>4.1408900000000001E-11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G99">
+        <v>67.5</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="0"/>
+        <v>2.2846441530185272E-6</v>
+      </c>
+      <c r="J99" s="1">
+        <v>1.0960199999999999E-9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G100">
+        <v>72.5</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="0"/>
+        <v>2.2239840980882428E-5</v>
+      </c>
+      <c r="J100" s="1">
+        <v>2.8994000000000001E-8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G101">
+        <v>77.5</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="0"/>
+        <v>2.1645573608994887E-4</v>
+      </c>
+      <c r="J101" s="1">
+        <v>7.6579399999999998E-7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G102">
+        <v>82.5</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="0"/>
+        <v>2.1031514335649874E-3</v>
+      </c>
+      <c r="J102" s="1">
+        <v>2.01152E-5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G103">
+        <v>87.5</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="0"/>
+        <v>2.0104189654354995E-2</v>
+      </c>
+      <c r="J103">
+        <v>5.1454500000000004E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G104">
+        <v>92.5</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="0"/>
+        <v>0.16647437914588792</v>
+      </c>
+      <c r="J104">
+        <v>1.11019E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>159.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G105">
+        <v>97.5</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="0"/>
+        <v>0.6603539587344629</v>
+      </c>
+      <c r="J105">
+        <v>0.107502</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G106">
+        <v>102.5</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="0"/>
+        <v>0.94981575859577216</v>
+      </c>
+      <c r="J106">
+        <v>0.32889499999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1.0049999999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G107">
+        <v>107.5</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="0"/>
+        <v>0.99460171983439971</v>
+      </c>
+      <c r="J107">
+        <v>0.58811100000000005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G108">
+        <v>112.5</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="0"/>
+        <v>0.99944275989909015</v>
+      </c>
+      <c r="J108">
+        <v>0.79880399999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>130</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G109">
+        <v>117.5</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="0"/>
+        <v>0.99994272860203715</v>
+      </c>
+      <c r="J109">
+        <v>0.91788899999999995</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>67</v>
       </c>
@@ -1871,22 +2146,59 @@
       <c r="C110" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G110">
+        <v>122.5</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="0"/>
+        <v>0.99999411646523695</v>
+      </c>
+      <c r="J110">
+        <v>0.97095100000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>0.23881599579099999</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C111" s="2">
+        <f>1/A111</f>
+        <v>4.187324206185715</v>
+      </c>
+      <c r="D111">
+        <f>LN(C111)</f>
+        <v>1.4320619156576078</v>
+      </c>
+      <c r="G111">
+        <v>127.5</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="0"/>
+        <v>0.9999993956078177</v>
+      </c>
+      <c r="J111">
+        <v>0.99202199999999996</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G112">
+        <v>132.5</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="0"/>
+        <v>0.99999993791348329</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>4.3155758708500001</v>
       </c>
@@ -1896,157 +2208,829 @@
       </c>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>8.42583821087E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C117">
+        <f>1/A117</f>
+        <v>11.868255418314591</v>
+      </c>
+      <c r="D117">
+        <f>LN(C117)</f>
+        <v>2.4738672237941066</v>
+      </c>
+      <c r="E117">
+        <v>25</v>
+      </c>
+      <c r="F117">
+        <v>27.5</v>
+      </c>
+      <c r="G117">
+        <f>1/(1+EXP(-$A$117*(F117-$A$119)))</f>
+        <v>9.6203133200029468E-4</v>
+      </c>
+      <c r="H117">
+        <f>1/(1+EXP(-(F117-$A$119)/$C$117))</f>
+        <v>9.6203133200029468E-4</v>
+      </c>
+      <c r="I117">
+        <f>H117/$H$138</f>
+        <v>1.1056868133211917E-3</v>
+      </c>
+      <c r="K117">
+        <f>LN(H117)</f>
+        <v>-6.946463538182071</v>
+      </c>
+      <c r="L117">
+        <f>K117-$K$138</f>
+        <v>-6.807288586578025</v>
+      </c>
+      <c r="M117">
+        <f>EXP(L117)</f>
+        <v>1.1056868133211917E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E118">
+        <v>30</v>
+      </c>
+      <c r="F118">
+        <v>32.5</v>
+      </c>
+      <c r="G118">
+        <f t="shared" ref="G118:G138" si="1">1/(1+EXP(-$A$117*(F118-$A$119)))</f>
+        <v>1.4653289289554936E-3</v>
+      </c>
+      <c r="H118">
+        <f t="shared" ref="H118:H130" si="2">1/(1+EXP(-(F118-$A$119)/$C$117))</f>
+        <v>1.4653289289554936E-3</v>
+      </c>
+      <c r="I118">
+        <f t="shared" ref="I118:I138" si="3">H118/$H$138</f>
+        <v>1.6841394038127424E-3</v>
+      </c>
+      <c r="K118">
+        <f t="shared" ref="K118:K138" si="4">LN(H118)</f>
+        <v>-6.5256755368307502</v>
+      </c>
+      <c r="L118">
+        <f t="shared" ref="L118:L138" si="5">K118-$K$138</f>
+        <v>-6.3865005852267043</v>
+      </c>
+      <c r="M118">
+        <f t="shared" ref="M118:M138" si="6">EXP(L118)</f>
+        <v>1.6841394038127418E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>109.930980396</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <f>LN(A119)</f>
+        <v>4.6998527179172367</v>
+      </c>
+      <c r="E119">
+        <v>35</v>
+      </c>
+      <c r="F119">
+        <v>37.5</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="1"/>
+        <v>2.2313442774069166E-3</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="2"/>
+        <v>2.2313442774069166E-3</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="3"/>
+        <v>2.5645401157347912E-3</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="4"/>
+        <v>-6.105151060149395</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="5"/>
+        <v>-5.9659761085453491</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="6"/>
+        <v>2.5645401157347899E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E120">
+        <v>40</v>
+      </c>
+      <c r="F120">
+        <v>42.5</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="1"/>
+        <v>3.3964397345092375E-3</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="2"/>
+        <v>3.3964397345092375E-3</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="3"/>
+        <v>3.9036136368642131E-3</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="4"/>
+        <v>-5.6850275328999498</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="5"/>
+        <v>-5.5458525812959039</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="6"/>
+        <v>3.9036136368642135E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E121">
+        <v>45</v>
+      </c>
+      <c r="F121">
+        <v>47.5</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="1"/>
+        <v>5.16673904855068E-3</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="2"/>
+        <v>5.16673904855068E-3</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="3"/>
+        <v>5.9382631769132627E-3</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="4"/>
+        <v>-5.2655135344262707</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="5"/>
+        <v>-5.1263385828222248</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="6"/>
+        <v>5.9382631769132619E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E122">
+        <v>50</v>
+      </c>
+      <c r="F122">
+        <v>52.5</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="1"/>
+        <v>7.8524870846216066E-3</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="2"/>
+        <v>7.8524870846216066E-3</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="3"/>
+        <v>9.0250609646863565E-3</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="4"/>
+        <v>-4.8469249713001528</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="5"/>
+        <v>-4.7077500196961068</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="6"/>
+        <v>9.0250609646863583E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E123">
+        <v>55</v>
+      </c>
+      <c r="F123">
+        <v>57.5</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="1"/>
+        <v>1.1917602537126579E-2</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="2"/>
+        <v>1.1917602537126579E-2</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="3"/>
+        <v>1.3697200427251782E-2</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="4"/>
+        <v>-4.4297387670098605</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="5"/>
+        <v>-4.2905638154058146</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="6"/>
+        <v>1.3697200427251779E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E124">
+        <v>60</v>
+      </c>
+      <c r="F124">
+        <v>62.5</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="1"/>
+        <v>1.8048884043698876E-2</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="2"/>
+        <v>1.8048884043698876E-2</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="3"/>
+        <v>2.0744036517799196E-2</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="4"/>
+        <v>-4.0146714219483997</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="5"/>
+        <v>-3.8754964703443537</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="6"/>
+        <v>2.07440365177992E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>60</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E125">
+        <v>65</v>
+      </c>
+      <c r="F125">
+        <v>67.5</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="1"/>
+        <v>2.7247556950463242E-2</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="2"/>
+        <v>2.7247556950463242E-2</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="3"/>
+        <v>3.1316302716153287E-2</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="4"/>
+        <v>-3.6027914150859814</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="5"/>
+        <v>-3.4636164634819355</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="6"/>
+        <v>3.1316302716153273E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E126">
+        <v>70</v>
+      </c>
+      <c r="F126">
+        <v>72.5</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="1"/>
+        <v>4.0938908828684985E-2</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="2"/>
+        <v>4.0938908828684985E-2</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="3"/>
+        <v>4.7052117886345141E-2</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="4"/>
+        <v>-3.1956743520430027</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="5"/>
+        <v>-3.0564994004389563</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="6"/>
+        <v>4.7052117886345154E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>40</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E127">
+        <v>75</v>
+      </c>
+      <c r="F127">
+        <v>77.5</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="1"/>
+        <v>6.1077927422646811E-2</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="2"/>
+        <v>6.1077927422646811E-2</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="3"/>
+        <v>7.0198398627820055E-2</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="4"/>
+        <v>-2.7956047313841204</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="5"/>
+        <v>-2.6564297797800744</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="6"/>
+        <v>7.0198398627820041E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E128">
+        <v>80</v>
+      </c>
+      <c r="F128">
+        <v>82.5</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="1"/>
+        <v>9.0192232146976789E-2</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="2"/>
+        <v>9.0192232146976789E-2</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="3"/>
+        <v>0.10366020152541702</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="4"/>
+        <v>-2.4058119737264061</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="5"/>
+        <v>-2.2666370221223602</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="6"/>
+        <v>0.10366020152541701</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>0.44649064771300001</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E129">
+        <v>85</v>
+      </c>
+      <c r="F129">
+        <v>87.5</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="1"/>
+        <v>0.13124468410532175</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="2"/>
+        <v>0.13124468410532175</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="3"/>
+        <v>0.15084281738727739</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="4"/>
+        <v>-2.0306918803853256</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="5"/>
+        <v>-1.8915169287812794</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="6"/>
+        <v>0.15084281738727742</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E130">
+        <v>90</v>
+      </c>
+      <c r="F130">
+        <v>92.5</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="1"/>
+        <v>0.18713934382416181</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="2"/>
+        <v>0.18713934382416181</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="3"/>
+        <v>0.21508395603885896</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="4"/>
+        <v>-1.6759017854771541</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="5"/>
+        <v>-1.5367268338731079</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="6"/>
+        <v>0.21508395603885896</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>0.52016917924799999</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E131">
+        <v>95</v>
+      </c>
+      <c r="F131">
+        <v>97.5</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="1"/>
+        <v>0.25972193596031634</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H138" si="7">1/(1+EXP(-(F131-$A$119)/$C$117))</f>
+        <v>0.25972193596031634</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="3"/>
+        <v>0.29850495526426873</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="4"/>
+        <v>-1.3481436973409999</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="5"/>
+        <v>-1.2089687457369538</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="6"/>
+        <v>0.29850495526426873</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E132">
+        <v>100</v>
+      </c>
+      <c r="F132">
+        <v>102.5</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="1"/>
+        <v>0.34839029418223494</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="7"/>
+        <v>0.34839029418223494</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="3"/>
+        <v>0.40041373014893644</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="4"/>
+        <v>-1.0544318926517835</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="5"/>
+        <v>-0.91525694104773736</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="6"/>
+        <v>0.40041373014893644</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>63.216811077099997</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E133">
+        <v>105</v>
+      </c>
+      <c r="F133">
+        <v>107.5</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="1"/>
+        <v>0.44897067011196212</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="7"/>
+        <v>0.44897067011196212</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="3"/>
+        <v>0.51601328667601376</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="4"/>
+        <v>-0.80079771606401018</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="5"/>
+        <v>-0.66162276445996404</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="6"/>
+        <v>0.51601328667601376</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E134">
+        <v>110</v>
+      </c>
+      <c r="F134">
+        <v>112.5</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="1"/>
+        <v>0.5539050438251869</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="7"/>
+        <v>0.5539050438251869</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="3"/>
+        <v>0.63661700239656893</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="4"/>
+        <v>-0.59076200796325851</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="5"/>
+        <v>-0.45158705635921237</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="6"/>
+        <v>0.63661700239656893</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>42.190179705299997</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E135">
+        <v>115</v>
+      </c>
+      <c r="F135">
+        <v>117.5</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="1"/>
+        <v>0.65424542497681171</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="7"/>
+        <v>0.65424542497681171</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="3"/>
+        <v>0.75194072688721769</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="4"/>
+        <v>-0.42427273037155233</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="5"/>
+        <v>-0.28509777876750619</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="6"/>
+        <v>0.75194072688721758</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E136">
+        <v>120</v>
+      </c>
+      <c r="F136">
+        <v>122.5</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="1"/>
+        <v>0.74250805031275724</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="7"/>
+        <v>0.74250805031275724</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="3"/>
+        <v>0.85338318275832648</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="4"/>
+        <v>-0.29772156619199469</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="5"/>
+        <v>-0.15854661458794855</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="6"/>
+        <v>0.85338318275832636</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>0.784139414516</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E137">
+        <v>125</v>
+      </c>
+      <c r="F137">
+        <v>127.5</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="1"/>
+        <v>0.81462350239922254</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="7"/>
+        <v>0.81462350239922254</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="3"/>
+        <v>0.93626728617199417</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="4"/>
+        <v>-0.20502923272413492</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="5"/>
+        <v>-6.5854281120088787E-2</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="6"/>
+        <v>0.93626728617199417</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E138">
+        <v>130</v>
+      </c>
+      <c r="F138">
+        <v>132.5</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="1"/>
+        <v>0.87007579398600776</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="7"/>
+        <v>0.87007579398600776</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="4"/>
+        <v>-0.13917495160404614</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>51.822366199999998</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>36.259990414500002</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>0.99999997709400001</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>85</v>
       </c>
@@ -2225,8 +3209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2472,6 +3456,18 @@
       <c r="F8" t="s">
         <v>144</v>
       </c>
+      <c r="H8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J8" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" t="s">
+        <v>157</v>
+      </c>
+      <c r="L8" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -2486,6 +3482,9 @@
       <c r="F9">
         <v>9.6541376560700005</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B10">
@@ -2500,6 +3499,9 @@
       <c r="F10">
         <v>9.7910719438299996</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B11">
@@ -2514,6 +3516,9 @@
       <c r="F11">
         <v>10.219282849800001</v>
       </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B12">
@@ -2528,6 +3533,9 @@
       <c r="F12">
         <v>11.270183551000001</v>
       </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B13">
@@ -2542,6 +3550,9 @@
       <c r="F13">
         <v>13.065030694300001</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B14">
@@ -2556,6 +3567,9 @@
       <c r="F14">
         <v>13.897168668100001</v>
       </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B15">
@@ -2570,6 +3584,9 @@
       <c r="F15">
         <v>13.344126789800001</v>
       </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B16">
@@ -2584,8 +3601,11 @@
       <c r="F16">
         <v>12.423934918900001</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>11.7433927738</v>
       </c>
@@ -2598,8 +3618,11 @@
       <c r="F17">
         <v>11.488009053600001</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>11.6203128987</v>
       </c>
@@ -2612,8 +3635,11 @@
       <c r="F18">
         <v>10.0512170664</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>11.2405482325</v>
       </c>
@@ -2626,8 +3652,11 @@
       <c r="F19">
         <v>9.0790765120200003</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>10.946996670900001</v>
       </c>
@@ -2640,8 +3669,11 @@
       <c r="F20">
         <v>8.6585545634500001</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>11.0616797118</v>
       </c>
@@ -2654,8 +3686,11 @@
       <c r="F21">
         <v>-9.8999579077799993</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>10.852059370699999</v>
       </c>
@@ -2668,8 +3703,11 @@
       <c r="F22">
         <v>-9.8999579077799993</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>9.5515696719799994</v>
       </c>
@@ -2682,8 +3720,11 @@
       <c r="F23">
         <v>-9.8999579077799993</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>8.2545820193800008</v>
       </c>
@@ -2696,8 +3737,11 @@
       <c r="F24">
         <v>-9.8999579077799993</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>7.2342957640699996</v>
       </c>
@@ -2710,8 +3754,11 @@
       <c r="F25">
         <v>-9.8999579077799993</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>6.5247002737299997</v>
       </c>
@@ -2724,8 +3771,11 @@
       <c r="F26">
         <v>-9.8999579077799993</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>6.0272153204499999</v>
       </c>
@@ -2738,8 +3788,11 @@
       <c r="F27">
         <v>-9.8999579077799993</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>5.6665487986500001</v>
       </c>
@@ -2752,8 +3805,11 @@
       <c r="F28">
         <v>-9.8999579077799993</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>5.4168816243000002</v>
       </c>
@@ -2766,8 +3822,11 @@
       <c r="F29">
         <v>-9.8999579077799993</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>5.2877781700600002</v>
       </c>
@@ -2779,6 +3838,9 @@
       </c>
       <c r="F30">
         <v>-9.8999579077799993</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3497,7 +4559,7 @@
         <v>7.5</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F14" si="1">(E3^($J$4-1))*EXP(-E3/$J$2)</f>
+        <f t="shared" ref="F3:F7" si="1">(E3^($J$4-1))*EXP(-E3/$J$2)</f>
         <v>6.705601108624041</v>
       </c>
       <c r="G3">
@@ -3815,15 +4877,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -3837,7 +4902,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>0.32241500000000001</v>
       </c>
@@ -3845,7 +4910,7 @@
         <v>0.32241500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -3865,7 +4930,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0.36144700000000002</v>
       </c>
@@ -3873,7 +4938,7 @@
         <v>0.31065399999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -3893,12 +4958,61 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>0.36144700000000002</v>
       </c>
       <c r="C6">
         <v>0.31065399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9">
+        <v>0.31065399999999999</v>
+      </c>
+      <c r="D9">
+        <v>3.7159442120766349E-2</v>
+      </c>
+      <c r="E9">
+        <f>B9*EXP(D9)</f>
+        <v>0.32241489011133884</v>
+      </c>
+      <c r="G9">
+        <v>3.7159442120766349E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10">
+        <v>0.36144700000000002</v>
+      </c>
+      <c r="D10">
+        <v>-0.11427634866538093</v>
+      </c>
+      <c r="E10">
+        <f>B10*EXP(D10)</f>
+        <v>0.32241485015397275</v>
+      </c>
+      <c r="G10">
+        <v>-0.11427634866538093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11">
+        <v>0.32241500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3910,7 +5024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>

--- a/not_gmacs_2/fiddling with parameters.xlsx
+++ b/not_gmacs_2/fiddling with parameters.xlsx
@@ -9,51 +9,55 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10596" windowHeight="7020" tabRatio="684"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10596" windowHeight="7020" tabRatio="684" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2016sc" sheetId="1" r:id="rId1"/>
-    <sheet name="initial N" sheetId="6" r:id="rId2"/>
-    <sheet name="growth" sheetId="3" r:id="rId3"/>
-    <sheet name="size at recruit" sheetId="4" r:id="rId4"/>
-    <sheet name="Natural mortality" sheetId="5" r:id="rId5"/>
-    <sheet name="maturity" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="11" r:id="rId2"/>
+    <sheet name="initial N" sheetId="6" r:id="rId3"/>
+    <sheet name="growth" sheetId="3" r:id="rId4"/>
+    <sheet name="cumd_gamma" sheetId="8" r:id="rId5"/>
+    <sheet name="growth trans" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId7"/>
+    <sheet name="size at recruit" sheetId="4" r:id="rId8"/>
+    <sheet name="Natural mortality" sheetId="5" r:id="rId9"/>
+    <sheet name="maturity" sheetId="2" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">'Natural mortality'!$D$9</definedName>
-    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">'Natural mortality'!$E$9</definedName>
-    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_val" localSheetId="4" hidden="1">0.322415</definedName>
-    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="8" hidden="1">'Natural mortality'!$D$9</definedName>
+    <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">'Natural mortality'!$E$9</definedName>
+    <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">0.322415</definedName>
+    <definedName name="solver_ver" localSheetId="8" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="173">
   <si>
     <t># Number of parameters = 327 Objective function value = 7766.45  Maximum gradient component = 0.00411848</t>
   </si>
@@ -530,6 +534,48 @@
   </si>
   <si>
     <t>imm_new</t>
+  </si>
+  <si>
+    <t>GMACS</t>
+  </si>
+  <si>
+    <t>cumd</t>
+  </si>
+  <si>
+    <t>retained</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Surv</t>
+  </si>
+  <si>
+    <t>Jack's way</t>
+  </si>
+  <si>
+    <t>totsurv</t>
+  </si>
+  <si>
+    <t>seas1</t>
+  </si>
+  <si>
+    <t>seas2</t>
+  </si>
+  <si>
+    <t>seas3</t>
+  </si>
+  <si>
+    <t>disc</t>
+  </si>
+  <si>
+    <t>ret</t>
   </si>
 </sst>
 </file>
@@ -1347,15 +1393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R177"/>
+  <dimension ref="A1:AH177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91:I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -1758,12 +1804,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.50000005000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>53</v>
       </c>
@@ -1771,7 +1817,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4.6607123776700004</v>
       </c>
@@ -1780,37 +1826,37 @@
         <v>105.71136175330247</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4.5</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>57</v>
       </c>
@@ -1818,8 +1864,12 @@
         <v>136</v>
       </c>
       <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
+      <c r="H90" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -1830,7 +1880,7 @@
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>0.200110432177</v>
       </c>
@@ -1849,11 +1899,84 @@
         <f>1/(1+EXP(-$A$95*(G91-$A$97)))</f>
         <v>2.8329918833784871E-14</v>
       </c>
+      <c r="I91">
+        <f>1/(1+EXP(-$A$91*(G91-$B$83)))</f>
+        <v>1.5954982817547564E-7</v>
+      </c>
       <c r="J91" s="1">
         <v>4.5412700000000001E-21</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K91" s="1">
+        <v>2.83299E-14</v>
+      </c>
+      <c r="M91" s="1">
+        <v>2.83299E-14</v>
+      </c>
+      <c r="N91" s="1">
+        <v>2.7578299999999998E-13</v>
+      </c>
+      <c r="O91" s="1">
+        <v>2.68466E-12</v>
+      </c>
+      <c r="P91" s="1">
+        <v>2.6134299999999999E-11</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>2.5440899999999999E-10</v>
+      </c>
+      <c r="R91" s="1">
+        <v>2.47659E-9</v>
+      </c>
+      <c r="S91" s="1">
+        <v>2.41088E-8</v>
+      </c>
+      <c r="T91" s="1">
+        <v>2.3469199999999999E-7</v>
+      </c>
+      <c r="U91" s="1">
+        <v>2.2846399999999999E-6</v>
+      </c>
+      <c r="V91" s="1">
+        <v>2.22398E-5</v>
+      </c>
+      <c r="W91">
+        <v>2.1645599999999999E-4</v>
+      </c>
+      <c r="X91">
+        <v>2.1031499999999998E-3</v>
+      </c>
+      <c r="Y91">
+        <v>2.0104199999999999E-2</v>
+      </c>
+      <c r="Z91">
+        <v>0.16647400000000001</v>
+      </c>
+      <c r="AA91">
+        <v>0.660354</v>
+      </c>
+      <c r="AB91">
+        <v>0.94981599999999999</v>
+      </c>
+      <c r="AC91">
+        <v>0.99460199999999999</v>
+      </c>
+      <c r="AD91">
+        <v>0.99944299999999997</v>
+      </c>
+      <c r="AE91">
+        <v>0.99994300000000003</v>
+      </c>
+      <c r="AF91">
+        <v>0.99999400000000005</v>
+      </c>
+      <c r="AG91">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="AH91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -1864,11 +1987,18 @@
         <f t="shared" ref="H92:H112" si="0">1/(1+EXP(-$A$95*(G92-$A$97)))</f>
         <v>2.7578275686439838E-13</v>
       </c>
+      <c r="I92">
+        <f t="shared" ref="I92:I112" si="1">1/(1+EXP(-$A$91*(G92-$B$83)))</f>
+        <v>4.3394081866773511E-7</v>
+      </c>
       <c r="J92" s="1">
         <v>1.2023599999999999E-19</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K92" s="1">
+        <v>2.7578299999999998E-13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0.45</v>
       </c>
@@ -1879,11 +2009,18 @@
         <f t="shared" si="0"/>
         <v>2.6846574968955772E-12</v>
       </c>
+      <c r="I93">
+        <f t="shared" si="1"/>
+        <v>1.1802240553925867E-6</v>
+      </c>
       <c r="J93" s="1">
         <v>3.1833800000000001E-18</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K93" s="1">
+        <v>2.68466E-12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>59</v>
       </c>
@@ -1897,11 +2034,18 @@
         <f t="shared" si="0"/>
         <v>2.6134287572699125E-11</v>
       </c>
+      <c r="I94">
+        <f t="shared" si="1"/>
+        <v>3.2099470095010451E-6</v>
+      </c>
       <c r="J94" s="1">
         <v>8.4283800000000004E-17</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K94" s="1">
+        <v>2.6134299999999999E-11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.45513899883199999</v>
       </c>
@@ -1920,11 +2064,18 @@
         <f t="shared" si="0"/>
         <v>2.5440898423073917E-10</v>
       </c>
+      <c r="I95">
+        <f t="shared" si="1"/>
+        <v>8.7303116639261777E-6</v>
+      </c>
       <c r="J95" s="1">
         <v>2.2315000000000001E-15</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K95" s="1">
+        <v>2.5440899999999999E-10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>60</v>
       </c>
@@ -1935,11 +2086,18 @@
         <f t="shared" si="0"/>
         <v>2.4765906071943536E-9</v>
       </c>
+      <c r="I96">
+        <f t="shared" si="1"/>
+        <v>2.3744198247060659E-5</v>
+      </c>
       <c r="J96" s="1">
         <v>5.9080900000000001E-14</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K96" s="1">
+        <v>2.47659E-9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96.0391891843</v>
       </c>
@@ -1954,11 +2112,18 @@
         <f t="shared" si="0"/>
         <v>2.4108822002248582E-8</v>
       </c>
+      <c r="I97">
+        <f t="shared" si="1"/>
+        <v>6.4576433850088301E-5</v>
+      </c>
       <c r="J97" s="1">
         <v>1.5641799999999999E-12</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K97" s="1">
+        <v>2.41088E-8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>61</v>
       </c>
@@ -1969,11 +2134,18 @@
         <f t="shared" si="0"/>
         <v>2.3469167121238143E-7</v>
       </c>
+      <c r="I98">
+        <f t="shared" si="1"/>
+        <v>1.7561439479176651E-4</v>
+      </c>
       <c r="J98" s="1">
         <v>4.1408900000000001E-11</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K98" s="1">
+        <v>2.3469199999999999E-7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0.27500000000000002</v>
       </c>
@@ -1984,11 +2156,18 @@
         <f t="shared" si="0"/>
         <v>2.2846441530185272E-6</v>
       </c>
+      <c r="I99">
+        <f t="shared" si="1"/>
+        <v>4.7748886512550165E-4</v>
+      </c>
       <c r="J99" s="1">
         <v>1.0960199999999999E-9</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K99" s="1">
+        <v>2.2846399999999999E-6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>62</v>
       </c>
@@ -1999,11 +2178,18 @@
         <f t="shared" si="0"/>
         <v>2.2239840980882428E-5</v>
       </c>
+      <c r="I100">
+        <f t="shared" si="1"/>
+        <v>1.2976006199032413E-3</v>
+      </c>
       <c r="J100" s="1">
         <v>2.8994000000000001E-8</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K100" s="1">
+        <v>2.22398E-5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2014,11 +2200,18 @@
         <f t="shared" si="0"/>
         <v>2.1645573608994887E-4</v>
       </c>
+      <c r="I101">
+        <f t="shared" si="1"/>
+        <v>3.5213341496503803E-3</v>
+      </c>
       <c r="J101" s="1">
         <v>7.6579399999999998E-7</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K101">
+        <v>2.1645599999999999E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>63</v>
       </c>
@@ -2029,11 +2222,18 @@
         <f t="shared" si="0"/>
         <v>2.1031514335649874E-3</v>
       </c>
+      <c r="I102">
+        <f t="shared" si="1"/>
+        <v>9.5196152275565209E-3</v>
+      </c>
       <c r="J102" s="1">
         <v>2.01152E-5</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K102">
+        <v>2.1031499999999998E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1.95</v>
       </c>
@@ -2044,11 +2244,18 @@
         <f t="shared" si="0"/>
         <v>2.0104189654354995E-2</v>
       </c>
+      <c r="I103">
+        <f t="shared" si="1"/>
+        <v>2.5474233450786789E-2</v>
+      </c>
       <c r="J103">
         <v>5.1454500000000004E-4</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K103">
+        <v>2.0104199999999999E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>64</v>
       </c>
@@ -2059,11 +2266,18 @@
         <f t="shared" si="0"/>
         <v>0.16647437914588792</v>
       </c>
+      <c r="I104">
+        <f t="shared" si="1"/>
+        <v>6.6376429586386593E-2</v>
+      </c>
       <c r="J104">
         <v>1.11019E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K104">
+        <v>0.16647400000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>159.5</v>
       </c>
@@ -2074,11 +2288,18 @@
         <f t="shared" si="0"/>
         <v>0.6603539587344629</v>
       </c>
+      <c r="I105">
+        <f t="shared" si="1"/>
+        <v>0.16203293928339907</v>
+      </c>
       <c r="J105">
         <v>0.107502</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K105">
+        <v>0.660354</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>65</v>
       </c>
@@ -2089,11 +2310,18 @@
         <f t="shared" si="0"/>
         <v>0.94981575859577216</v>
       </c>
+      <c r="I106">
+        <f t="shared" si="1"/>
+        <v>0.34465294674994884</v>
+      </c>
       <c r="J106">
         <v>0.32889499999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K106">
+        <v>0.94981599999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1.0049999999999999</v>
       </c>
@@ -2104,11 +2332,18 @@
         <f t="shared" si="0"/>
         <v>0.99460171983439971</v>
       </c>
+      <c r="I107">
+        <f t="shared" si="1"/>
+        <v>0.58853808421639353</v>
+      </c>
       <c r="J107">
         <v>0.58811100000000005</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K107">
+        <v>0.99460199999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>66</v>
       </c>
@@ -2119,11 +2354,18 @@
         <f t="shared" si="0"/>
         <v>0.99944275989909015</v>
       </c>
+      <c r="I108">
+        <f t="shared" si="1"/>
+        <v>0.79551211305391589</v>
+      </c>
       <c r="J108">
         <v>0.79880399999999996</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K108">
+        <v>0.99944299999999997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>130</v>
       </c>
@@ -2134,11 +2376,18 @@
         <f t="shared" si="0"/>
         <v>0.99994272860203715</v>
       </c>
+      <c r="I109">
+        <f t="shared" si="1"/>
+        <v>0.91364926888688769</v>
+      </c>
       <c r="J109">
         <v>0.91788899999999995</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K109">
+        <v>0.99994300000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>67</v>
       </c>
@@ -2153,11 +2402,18 @@
         <f t="shared" si="0"/>
         <v>0.99999411646523695</v>
       </c>
+      <c r="I110">
+        <f t="shared" si="1"/>
+        <v>0.96641720198993963</v>
+      </c>
       <c r="J110">
         <v>0.97095100000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K110">
+        <v>0.99999400000000005</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>0.23881599579099999</v>
       </c>
@@ -2177,11 +2433,18 @@
         <f t="shared" si="0"/>
         <v>0.9999993956078177</v>
       </c>
+      <c r="I111">
+        <f t="shared" si="1"/>
+        <v>0.98738450628855989</v>
+      </c>
       <c r="J111">
         <v>0.99202199999999996</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K111">
+        <v>0.99999899999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>68</v>
       </c>
@@ -2194,7 +2457,14 @@
         <f t="shared" si="0"/>
         <v>0.99999993791348329</v>
       </c>
+      <c r="I112">
+        <f t="shared" si="1"/>
+        <v>0.99532428253610972</v>
+      </c>
       <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
         <v>1</v>
       </c>
     </row>
@@ -2277,27 +2547,27 @@
         <v>32.5</v>
       </c>
       <c r="G118">
-        <f t="shared" ref="G118:G138" si="1">1/(1+EXP(-$A$117*(F118-$A$119)))</f>
+        <f t="shared" ref="G118:G138" si="2">1/(1+EXP(-$A$117*(F118-$A$119)))</f>
         <v>1.4653289289554936E-3</v>
       </c>
       <c r="H118">
-        <f t="shared" ref="H118:H130" si="2">1/(1+EXP(-(F118-$A$119)/$C$117))</f>
+        <f t="shared" ref="H118:H130" si="3">1/(1+EXP(-(F118-$A$119)/$C$117))</f>
         <v>1.4653289289554936E-3</v>
       </c>
       <c r="I118">
-        <f t="shared" ref="I118:I138" si="3">H118/$H$138</f>
+        <f t="shared" ref="I118:I138" si="4">H118/$H$138</f>
         <v>1.6841394038127424E-3</v>
       </c>
       <c r="K118">
-        <f t="shared" ref="K118:K138" si="4">LN(H118)</f>
+        <f t="shared" ref="K118:K138" si="5">LN(H118)</f>
         <v>-6.5256755368307502</v>
       </c>
       <c r="L118">
-        <f t="shared" ref="L118:L138" si="5">K118-$K$138</f>
+        <f t="shared" ref="L118:L138" si="6">K118-$K$138</f>
         <v>-6.3865005852267043</v>
       </c>
       <c r="M118">
-        <f t="shared" ref="M118:M138" si="6">EXP(L118)</f>
+        <f t="shared" ref="M118:M138" si="7">EXP(L118)</f>
         <v>1.6841394038127418E-3</v>
       </c>
     </row>
@@ -2316,27 +2586,27 @@
         <v>37.5</v>
       </c>
       <c r="G119">
-        <f t="shared" si="1"/>
-        <v>2.2313442774069166E-3</v>
-      </c>
-      <c r="H119">
         <f t="shared" si="2"/>
         <v>2.2313442774069166E-3</v>
       </c>
+      <c r="H119">
+        <f t="shared" si="3"/>
+        <v>2.2313442774069166E-3</v>
+      </c>
       <c r="I119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5645401157347912E-3</v>
       </c>
       <c r="K119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.105151060149395</v>
       </c>
       <c r="L119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5.9659761085453491</v>
       </c>
       <c r="M119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5645401157347899E-3</v>
       </c>
     </row>
@@ -2351,27 +2621,27 @@
         <v>42.5</v>
       </c>
       <c r="G120">
-        <f t="shared" si="1"/>
-        <v>3.3964397345092375E-3</v>
-      </c>
-      <c r="H120">
         <f t="shared" si="2"/>
         <v>3.3964397345092375E-3</v>
       </c>
+      <c r="H120">
+        <f t="shared" si="3"/>
+        <v>3.3964397345092375E-3</v>
+      </c>
       <c r="I120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9036136368642131E-3</v>
       </c>
       <c r="K120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5.6850275328999498</v>
       </c>
       <c r="L120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5.5458525812959039</v>
       </c>
       <c r="M120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.9036136368642135E-3</v>
       </c>
     </row>
@@ -2386,27 +2656,27 @@
         <v>47.5</v>
       </c>
       <c r="G121">
-        <f t="shared" si="1"/>
-        <v>5.16673904855068E-3</v>
-      </c>
-      <c r="H121">
         <f t="shared" si="2"/>
         <v>5.16673904855068E-3</v>
       </c>
+      <c r="H121">
+        <f t="shared" si="3"/>
+        <v>5.16673904855068E-3</v>
+      </c>
       <c r="I121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9382631769132627E-3</v>
       </c>
       <c r="K121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5.2655135344262707</v>
       </c>
       <c r="L121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5.1263385828222248</v>
       </c>
       <c r="M121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.9382631769132619E-3</v>
       </c>
     </row>
@@ -2421,27 +2691,27 @@
         <v>52.5</v>
       </c>
       <c r="G122">
-        <f t="shared" si="1"/>
-        <v>7.8524870846216066E-3</v>
-      </c>
-      <c r="H122">
         <f t="shared" si="2"/>
         <v>7.8524870846216066E-3</v>
       </c>
+      <c r="H122">
+        <f t="shared" si="3"/>
+        <v>7.8524870846216066E-3</v>
+      </c>
       <c r="I122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0250609646863565E-3</v>
       </c>
       <c r="K122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.8469249713001528</v>
       </c>
       <c r="L122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4.7077500196961068</v>
       </c>
       <c r="M122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.0250609646863583E-3</v>
       </c>
     </row>
@@ -2456,27 +2726,27 @@
         <v>57.5</v>
       </c>
       <c r="G123">
-        <f t="shared" si="1"/>
-        <v>1.1917602537126579E-2</v>
-      </c>
-      <c r="H123">
         <f t="shared" si="2"/>
         <v>1.1917602537126579E-2</v>
       </c>
+      <c r="H123">
+        <f t="shared" si="3"/>
+        <v>1.1917602537126579E-2</v>
+      </c>
       <c r="I123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3697200427251782E-2</v>
       </c>
       <c r="K123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.4297387670098605</v>
       </c>
       <c r="L123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4.2905638154058146</v>
       </c>
       <c r="M123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3697200427251779E-2</v>
       </c>
     </row>
@@ -2491,27 +2761,27 @@
         <v>62.5</v>
       </c>
       <c r="G124">
-        <f t="shared" si="1"/>
-        <v>1.8048884043698876E-2</v>
-      </c>
-      <c r="H124">
         <f t="shared" si="2"/>
         <v>1.8048884043698876E-2</v>
       </c>
+      <c r="H124">
+        <f t="shared" si="3"/>
+        <v>1.8048884043698876E-2</v>
+      </c>
       <c r="I124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0744036517799196E-2</v>
       </c>
       <c r="K124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.0146714219483997</v>
       </c>
       <c r="L124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.8754964703443537</v>
       </c>
       <c r="M124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.07440365177992E-2</v>
       </c>
     </row>
@@ -2526,27 +2796,27 @@
         <v>67.5</v>
       </c>
       <c r="G125">
-        <f t="shared" si="1"/>
-        <v>2.7247556950463242E-2</v>
-      </c>
-      <c r="H125">
         <f t="shared" si="2"/>
         <v>2.7247556950463242E-2</v>
       </c>
+      <c r="H125">
+        <f t="shared" si="3"/>
+        <v>2.7247556950463242E-2</v>
+      </c>
       <c r="I125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1316302716153287E-2</v>
       </c>
       <c r="K125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.6027914150859814</v>
       </c>
       <c r="L125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.4636164634819355</v>
       </c>
       <c r="M125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1316302716153273E-2</v>
       </c>
     </row>
@@ -2561,27 +2831,27 @@
         <v>72.5</v>
       </c>
       <c r="G126">
-        <f t="shared" si="1"/>
-        <v>4.0938908828684985E-2</v>
-      </c>
-      <c r="H126">
         <f t="shared" si="2"/>
         <v>4.0938908828684985E-2</v>
       </c>
+      <c r="H126">
+        <f t="shared" si="3"/>
+        <v>4.0938908828684985E-2</v>
+      </c>
       <c r="I126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7052117886345141E-2</v>
       </c>
       <c r="K126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.1956743520430027</v>
       </c>
       <c r="L126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.0564994004389563</v>
       </c>
       <c r="M126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.7052117886345154E-2</v>
       </c>
     </row>
@@ -2596,27 +2866,27 @@
         <v>77.5</v>
       </c>
       <c r="G127">
-        <f t="shared" si="1"/>
-        <v>6.1077927422646811E-2</v>
-      </c>
-      <c r="H127">
         <f t="shared" si="2"/>
         <v>6.1077927422646811E-2</v>
       </c>
+      <c r="H127">
+        <f t="shared" si="3"/>
+        <v>6.1077927422646811E-2</v>
+      </c>
       <c r="I127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0198398627820055E-2</v>
       </c>
       <c r="K127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.7956047313841204</v>
       </c>
       <c r="L127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.6564297797800744</v>
       </c>
       <c r="M127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.0198398627820041E-2</v>
       </c>
     </row>
@@ -2631,27 +2901,27 @@
         <v>82.5</v>
       </c>
       <c r="G128">
-        <f t="shared" si="1"/>
-        <v>9.0192232146976789E-2</v>
-      </c>
-      <c r="H128">
         <f t="shared" si="2"/>
         <v>9.0192232146976789E-2</v>
       </c>
+      <c r="H128">
+        <f t="shared" si="3"/>
+        <v>9.0192232146976789E-2</v>
+      </c>
       <c r="I128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10366020152541702</v>
       </c>
       <c r="K128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.4058119737264061</v>
       </c>
       <c r="L128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.2666370221223602</v>
       </c>
       <c r="M128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10366020152541701</v>
       </c>
     </row>
@@ -2666,27 +2936,27 @@
         <v>87.5</v>
       </c>
       <c r="G129">
-        <f t="shared" si="1"/>
-        <v>0.13124468410532175</v>
-      </c>
-      <c r="H129">
         <f t="shared" si="2"/>
         <v>0.13124468410532175</v>
       </c>
+      <c r="H129">
+        <f t="shared" si="3"/>
+        <v>0.13124468410532175</v>
+      </c>
       <c r="I129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15084281738727739</v>
       </c>
       <c r="K129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.0306918803853256</v>
       </c>
       <c r="L129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.8915169287812794</v>
       </c>
       <c r="M129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.15084281738727742</v>
       </c>
     </row>
@@ -2701,27 +2971,27 @@
         <v>92.5</v>
       </c>
       <c r="G130">
-        <f t="shared" si="1"/>
-        <v>0.18713934382416181</v>
-      </c>
-      <c r="H130">
         <f t="shared" si="2"/>
         <v>0.18713934382416181</v>
       </c>
+      <c r="H130">
+        <f t="shared" si="3"/>
+        <v>0.18713934382416181</v>
+      </c>
       <c r="I130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21508395603885896</v>
       </c>
       <c r="K130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.6759017854771541</v>
       </c>
       <c r="L130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.5367268338731079</v>
       </c>
       <c r="M130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.21508395603885896</v>
       </c>
     </row>
@@ -2736,27 +3006,27 @@
         <v>97.5</v>
       </c>
       <c r="G131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25972193596031634</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H138" si="7">1/(1+EXP(-(F131-$A$119)/$C$117))</f>
+        <f t="shared" ref="H131:H138" si="8">1/(1+EXP(-(F131-$A$119)/$C$117))</f>
         <v>0.25972193596031634</v>
       </c>
       <c r="I131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.29850495526426873</v>
       </c>
       <c r="K131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.3481436973409999</v>
       </c>
       <c r="L131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.2089687457369538</v>
       </c>
       <c r="M131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.29850495526426873</v>
       </c>
     </row>
@@ -2771,27 +3041,27 @@
         <v>102.5</v>
       </c>
       <c r="G132">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34839029418223494</v>
       </c>
       <c r="H132">
+        <f t="shared" si="8"/>
+        <v>0.34839029418223494</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="4"/>
+        <v>0.40041373014893644</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="5"/>
+        <v>-1.0544318926517835</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="6"/>
+        <v>-0.91525694104773736</v>
+      </c>
+      <c r="M132">
         <f t="shared" si="7"/>
-        <v>0.34839029418223494</v>
-      </c>
-      <c r="I132">
-        <f t="shared" si="3"/>
-        <v>0.40041373014893644</v>
-      </c>
-      <c r="K132">
-        <f t="shared" si="4"/>
-        <v>-1.0544318926517835</v>
-      </c>
-      <c r="L132">
-        <f t="shared" si="5"/>
-        <v>-0.91525694104773736</v>
-      </c>
-      <c r="M132">
-        <f t="shared" si="6"/>
         <v>0.40041373014893644</v>
       </c>
     </row>
@@ -2806,27 +3076,27 @@
         <v>107.5</v>
       </c>
       <c r="G133">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44897067011196212</v>
       </c>
       <c r="H133">
+        <f t="shared" si="8"/>
+        <v>0.44897067011196212</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="4"/>
+        <v>0.51601328667601376</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="5"/>
+        <v>-0.80079771606401018</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="6"/>
+        <v>-0.66162276445996404</v>
+      </c>
+      <c r="M133">
         <f t="shared" si="7"/>
-        <v>0.44897067011196212</v>
-      </c>
-      <c r="I133">
-        <f t="shared" si="3"/>
-        <v>0.51601328667601376</v>
-      </c>
-      <c r="K133">
-        <f t="shared" si="4"/>
-        <v>-0.80079771606401018</v>
-      </c>
-      <c r="L133">
-        <f t="shared" si="5"/>
-        <v>-0.66162276445996404</v>
-      </c>
-      <c r="M133">
-        <f t="shared" si="6"/>
         <v>0.51601328667601376</v>
       </c>
     </row>
@@ -2841,27 +3111,27 @@
         <v>112.5</v>
       </c>
       <c r="G134">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5539050438251869</v>
       </c>
       <c r="H134">
+        <f t="shared" si="8"/>
+        <v>0.5539050438251869</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="4"/>
+        <v>0.63661700239656893</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="5"/>
+        <v>-0.59076200796325851</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="6"/>
+        <v>-0.45158705635921237</v>
+      </c>
+      <c r="M134">
         <f t="shared" si="7"/>
-        <v>0.5539050438251869</v>
-      </c>
-      <c r="I134">
-        <f t="shared" si="3"/>
-        <v>0.63661700239656893</v>
-      </c>
-      <c r="K134">
-        <f t="shared" si="4"/>
-        <v>-0.59076200796325851</v>
-      </c>
-      <c r="L134">
-        <f t="shared" si="5"/>
-        <v>-0.45158705635921237</v>
-      </c>
-      <c r="M134">
-        <f t="shared" si="6"/>
         <v>0.63661700239656893</v>
       </c>
     </row>
@@ -2876,27 +3146,27 @@
         <v>117.5</v>
       </c>
       <c r="G135">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.65424542497681171</v>
       </c>
       <c r="H135">
+        <f t="shared" si="8"/>
+        <v>0.65424542497681171</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="4"/>
+        <v>0.75194072688721769</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="5"/>
+        <v>-0.42427273037155233</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="6"/>
+        <v>-0.28509777876750619</v>
+      </c>
+      <c r="M135">
         <f t="shared" si="7"/>
-        <v>0.65424542497681171</v>
-      </c>
-      <c r="I135">
-        <f t="shared" si="3"/>
-        <v>0.75194072688721769</v>
-      </c>
-      <c r="K135">
-        <f t="shared" si="4"/>
-        <v>-0.42427273037155233</v>
-      </c>
-      <c r="L135">
-        <f t="shared" si="5"/>
-        <v>-0.28509777876750619</v>
-      </c>
-      <c r="M135">
-        <f t="shared" si="6"/>
         <v>0.75194072688721758</v>
       </c>
     </row>
@@ -2911,27 +3181,27 @@
         <v>122.5</v>
       </c>
       <c r="G136">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.74250805031275724</v>
       </c>
       <c r="H136">
+        <f t="shared" si="8"/>
+        <v>0.74250805031275724</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="4"/>
+        <v>0.85338318275832648</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="5"/>
+        <v>-0.29772156619199469</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="6"/>
+        <v>-0.15854661458794855</v>
+      </c>
+      <c r="M136">
         <f t="shared" si="7"/>
-        <v>0.74250805031275724</v>
-      </c>
-      <c r="I136">
-        <f t="shared" si="3"/>
-        <v>0.85338318275832648</v>
-      </c>
-      <c r="K136">
-        <f t="shared" si="4"/>
-        <v>-0.29772156619199469</v>
-      </c>
-      <c r="L136">
-        <f t="shared" si="5"/>
-        <v>-0.15854661458794855</v>
-      </c>
-      <c r="M136">
-        <f t="shared" si="6"/>
         <v>0.85338318275832636</v>
       </c>
     </row>
@@ -2946,27 +3216,27 @@
         <v>127.5</v>
       </c>
       <c r="G137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.81462350239922254</v>
       </c>
       <c r="H137">
+        <f t="shared" si="8"/>
+        <v>0.81462350239922254</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="4"/>
+        <v>0.93626728617199417</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="5"/>
+        <v>-0.20502923272413492</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="6"/>
+        <v>-6.5854281120088787E-2</v>
+      </c>
+      <c r="M137">
         <f t="shared" si="7"/>
-        <v>0.81462350239922254</v>
-      </c>
-      <c r="I137">
-        <f t="shared" si="3"/>
-        <v>0.93626728617199417</v>
-      </c>
-      <c r="K137">
-        <f t="shared" si="4"/>
-        <v>-0.20502923272413492</v>
-      </c>
-      <c r="L137">
-        <f t="shared" si="5"/>
-        <v>-6.5854281120088787E-2</v>
-      </c>
-      <c r="M137">
-        <f t="shared" si="6"/>
         <v>0.93626728617199417</v>
       </c>
     </row>
@@ -2981,27 +3251,27 @@
         <v>132.5</v>
       </c>
       <c r="G138">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87007579398600776</v>
       </c>
       <c r="H138">
+        <f t="shared" si="8"/>
+        <v>0.87007579398600776</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="5"/>
+        <v>-0.13917495160404614</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M138">
         <f t="shared" si="7"/>
-        <v>0.87007579398600776</v>
-      </c>
-      <c r="I138">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K138">
-        <f t="shared" si="4"/>
-        <v>-0.13917495160404614</v>
-      </c>
-      <c r="L138">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M138">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3197,6 +3467,813 @@
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>-5.0509224530400001</v>
+      </c>
+      <c r="C2">
+        <v>-4.4990868835800004</v>
+      </c>
+      <c r="D2">
+        <v>-3.9472513562099998</v>
+      </c>
+      <c r="E2">
+        <v>-3.3968185919199998</v>
+      </c>
+      <c r="F2">
+        <v>-2.8650588775600001</v>
+      </c>
+      <c r="G2">
+        <v>-2.39314779537</v>
+      </c>
+      <c r="H2">
+        <v>-2.0162601326799998</v>
+      </c>
+      <c r="I2">
+        <v>-1.7436764784600001</v>
+      </c>
+      <c r="J2">
+        <v>-1.58084559269</v>
+      </c>
+      <c r="K2">
+        <v>-1.4798019142900001</v>
+      </c>
+      <c r="L2">
+        <v>-1.4413909923399999</v>
+      </c>
+      <c r="M2">
+        <v>-1.47964013648</v>
+      </c>
+      <c r="N2">
+        <v>-1.49522035469</v>
+      </c>
+      <c r="O2">
+        <v>-1.3685649843300001</v>
+      </c>
+      <c r="P2">
+        <v>-1.0269771030399999</v>
+      </c>
+      <c r="Q2">
+        <v>-0.47399226759399998</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-1.11184377261E-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>-5.0884027325499996</v>
+      </c>
+      <c r="C4">
+        <v>-3.9641876299800001</v>
+      </c>
+      <c r="D4">
+        <v>-2.8399732182499999</v>
+      </c>
+      <c r="E4">
+        <v>-1.7284011397200001</v>
+      </c>
+      <c r="F4">
+        <v>-0.76188177604899998</v>
+      </c>
+      <c r="G4">
+        <v>-0.25338532151900001</v>
+      </c>
+      <c r="H4">
+        <v>-0.20827536599499999</v>
+      </c>
+      <c r="I4">
+        <v>-0.17053475641099999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f>EXP(B2)</f>
+        <v>6.4034238632099802E-3</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:R6" si="0">EXP(C2)</f>
+        <v>1.111914497803947E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1.9307698893583771E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3.3479613021676541E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>5.6979776203077807E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>9.1341705868550879E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.13315250777633411</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.17487628840269015</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.20580100078564562</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.22768278462325184</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.23659842308940648</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.22771962162514731</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.22419919594268597</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0.25447186878422667</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0.35808778861782004</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>0.62251206606511145</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>0.99999998888156238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f t="shared" ref="B8:R8" si="1">EXP(B4)</f>
+        <v>6.1678637514402598E-3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>1.8983451937338275E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>5.8427230727033715E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.17756808969293042</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.46678721103187321</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.77616874967478688</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.81198341330368307</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.84321378203453368</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>27.5</v>
+      </c>
+      <c r="B11">
+        <v>6.4034238632099802E-3</v>
+      </c>
+      <c r="C11">
+        <v>6.1678637514402598E-3</v>
+      </c>
+      <c r="F11">
+        <v>6.1678599999999998E-3</v>
+      </c>
+      <c r="G11">
+        <v>1.89835E-2</v>
+      </c>
+      <c r="H11">
+        <v>5.8427199999999999E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.177568</v>
+      </c>
+      <c r="J11">
+        <v>0.46678700000000001</v>
+      </c>
+      <c r="K11">
+        <v>0.776169</v>
+      </c>
+      <c r="L11">
+        <v>0.81198300000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.84321400000000002</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>32.5</v>
+      </c>
+      <c r="B12">
+        <v>1.111914497803947E-2</v>
+      </c>
+      <c r="C12">
+        <v>1.8983451937338275E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>37.5</v>
+      </c>
+      <c r="B13">
+        <v>1.9307698893583771E-2</v>
+      </c>
+      <c r="C13">
+        <v>5.8427230727033715E-2</v>
+      </c>
+      <c r="F13">
+        <v>6.4034199999999999E-3</v>
+      </c>
+      <c r="G13">
+        <v>1.11191E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.9307700000000001E-2</v>
+      </c>
+      <c r="I13">
+        <v>3.3479599999999998E-2</v>
+      </c>
+      <c r="J13">
+        <v>5.6979799999999997E-2</v>
+      </c>
+      <c r="K13">
+        <v>9.1341699999999998E-2</v>
+      </c>
+      <c r="L13">
+        <v>0.13315299999999999</v>
+      </c>
+      <c r="M13">
+        <v>0.174876</v>
+      </c>
+      <c r="N13">
+        <v>0.20580100000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.227683</v>
+      </c>
+      <c r="P13">
+        <v>0.236598</v>
+      </c>
+      <c r="Q13">
+        <v>0.22772000000000001</v>
+      </c>
+      <c r="R13">
+        <v>0.22419900000000001</v>
+      </c>
+      <c r="S13">
+        <v>0.25447199999999998</v>
+      </c>
+      <c r="T13">
+        <v>0.35808800000000002</v>
+      </c>
+      <c r="U13">
+        <v>0.62251199999999995</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>42.5</v>
+      </c>
+      <c r="B14">
+        <v>3.3479613021676541E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.17756808969293042</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>47.5</v>
+      </c>
+      <c r="B15">
+        <v>5.6979776203077807E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.46678721103187321</v>
+      </c>
+      <c r="E15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>52.5</v>
+      </c>
+      <c r="B16">
+        <v>9.1341705868550879E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.77616874967478688</v>
+      </c>
+      <c r="E16">
+        <v>6.4034199999999999E-3</v>
+      </c>
+      <c r="F16">
+        <v>6.1678599999999998E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>57.5</v>
+      </c>
+      <c r="B17">
+        <v>0.13315250777633411</v>
+      </c>
+      <c r="C17">
+        <v>0.81198341330368307</v>
+      </c>
+      <c r="E17">
+        <v>1.11191E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.89835E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>62.5</v>
+      </c>
+      <c r="B18">
+        <v>0.17487628840269015</v>
+      </c>
+      <c r="C18">
+        <v>0.84321378203453368</v>
+      </c>
+      <c r="E18">
+        <v>1.9307700000000001E-2</v>
+      </c>
+      <c r="F18">
+        <v>5.8427199999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>67.5</v>
+      </c>
+      <c r="B19">
+        <v>0.20580100078564562</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>3.3479599999999998E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.177568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>72.5</v>
+      </c>
+      <c r="B20">
+        <v>0.22768278462325184</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>5.6979799999999997E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.46678700000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>77.5</v>
+      </c>
+      <c r="B21">
+        <v>0.23659842308940648</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>9.1341699999999998E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.776169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>82.5</v>
+      </c>
+      <c r="B22">
+        <v>0.22771962162514731</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0.13315299999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.81198300000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>87.5</v>
+      </c>
+      <c r="B23">
+        <v>0.22419919594268597</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0.174876</v>
+      </c>
+      <c r="F23">
+        <v>0.84321400000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>92.5</v>
+      </c>
+      <c r="B24">
+        <v>0.25447186878422667</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0.20580100000000001</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>97.5</v>
+      </c>
+      <c r="B25">
+        <v>0.35808778861782004</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0.227683</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>102.5</v>
+      </c>
+      <c r="B26">
+        <v>0.62251206606511145</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0.236598</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>107.5</v>
+      </c>
+      <c r="B27">
+        <v>0.99999998888156238</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0.22772000000000001</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>112.5</v>
+      </c>
+      <c r="B28">
+        <v>0.99999998888156238</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0.22419900000000001</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>117.5</v>
+      </c>
+      <c r="B29">
+        <v>0.99999998888156238</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0.25447199999999998</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>122.5</v>
+      </c>
+      <c r="B30">
+        <v>0.99999998888156238</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0.35808800000000002</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>127.5</v>
+      </c>
+      <c r="B31">
+        <v>0.99999998888156238</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0.62251199999999995</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>132.5</v>
+      </c>
+      <c r="B32">
+        <v>0.99999998888156205</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>1</v>
       </c>
     </row>
@@ -3206,6 +4283,733 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>27.5</v>
+      </c>
+      <c r="C1">
+        <v>32.5</v>
+      </c>
+      <c r="D1">
+        <v>37.5</v>
+      </c>
+      <c r="E1">
+        <v>42.5</v>
+      </c>
+      <c r="F1">
+        <v>47.5</v>
+      </c>
+      <c r="G1">
+        <v>52.5</v>
+      </c>
+      <c r="H1">
+        <v>57.5</v>
+      </c>
+      <c r="I1">
+        <v>62.5</v>
+      </c>
+      <c r="J1">
+        <v>67.5</v>
+      </c>
+      <c r="K1">
+        <v>72.5</v>
+      </c>
+      <c r="L1">
+        <v>77.5</v>
+      </c>
+      <c r="M1">
+        <v>82.5</v>
+      </c>
+      <c r="N1">
+        <v>87.5</v>
+      </c>
+      <c r="O1">
+        <v>92.5</v>
+      </c>
+      <c r="P1">
+        <v>97.5</v>
+      </c>
+      <c r="Q1">
+        <v>102.5</v>
+      </c>
+      <c r="R1">
+        <v>107.5</v>
+      </c>
+      <c r="S1">
+        <v>112.5</v>
+      </c>
+      <c r="T1">
+        <v>117.5</v>
+      </c>
+      <c r="U1">
+        <v>122.5</v>
+      </c>
+      <c r="V1">
+        <v>127.5</v>
+      </c>
+      <c r="W1">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>300</v>
+      </c>
+      <c r="E2">
+        <v>400</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+      <c r="G2">
+        <v>600</v>
+      </c>
+      <c r="H2">
+        <v>500</v>
+      </c>
+      <c r="I2">
+        <v>400</v>
+      </c>
+      <c r="J2">
+        <v>350</v>
+      </c>
+      <c r="K2">
+        <v>300</v>
+      </c>
+      <c r="L2">
+        <v>200</v>
+      </c>
+      <c r="M2">
+        <v>150</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <v>100</v>
+      </c>
+      <c r="R2">
+        <v>50</v>
+      </c>
+      <c r="S2">
+        <v>50</v>
+      </c>
+      <c r="T2">
+        <v>50</v>
+      </c>
+      <c r="U2">
+        <v>50</v>
+      </c>
+      <c r="V2">
+        <v>25</v>
+      </c>
+      <c r="W2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0.8</v>
+      </c>
+      <c r="J6">
+        <v>0.6</v>
+      </c>
+      <c r="K6">
+        <v>0.4</v>
+      </c>
+      <c r="L6">
+        <v>0.4</v>
+      </c>
+      <c r="M6">
+        <v>0.4</v>
+      </c>
+      <c r="N6">
+        <v>0.3</v>
+      </c>
+      <c r="O6">
+        <v>0.3</v>
+      </c>
+      <c r="P6">
+        <v>0.2</v>
+      </c>
+      <c r="Q6">
+        <v>0.2</v>
+      </c>
+      <c r="R6">
+        <v>0.2</v>
+      </c>
+      <c r="S6">
+        <v>0.2</v>
+      </c>
+      <c r="T6">
+        <v>0.2</v>
+      </c>
+      <c r="U6">
+        <v>0.2</v>
+      </c>
+      <c r="V6">
+        <v>0.2</v>
+      </c>
+      <c r="W6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9">
+        <f>EXP(-0.625*$B$4)*B6*EXP(-0.325*$B$4)</f>
+        <v>0.75201425431938262</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:W9" si="0">EXP(-0.625*$B$4)*C6*EXP(-0.325*$B$4)</f>
+        <v>0.75201425431938262</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.75201425431938262</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.75201425431938262</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.75201425431938262</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.75201425431938262</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.75201425431938262</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.60161140345550623</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.45120855259162956</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.30080570172775312</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.30080570172775312</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0.30080570172775312</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.22560427629581478</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0.22560427629581478</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0.15040285086387656</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0.15040285086387656</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0.15040285086387656</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0.15040285086387656</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0.15040285086387656</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0.15040285086387656</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>0.15040285086387656</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>0.15040285086387656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f>B2*B9</f>
+        <v>75.201425431938262</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:W10" si="1">C2*C9</f>
+        <v>150.40285086387652</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>225.6042762958148</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>300.80570172775305</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>376.00712715969132</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>451.2085525916296</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>376.00712715969132</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>240.64456138220248</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>157.92299340707035</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>90.241710518325931</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>60.161140345550621</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>45.120855259162965</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>22.560427629581479</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>22.560427629581479</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>15.040285086387655</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>15.040285086387655</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>7.5201425431938276</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>7.5201425431938276</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>7.5201425431938276</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>7.5201425431938276</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>3.7600712715969138</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>3.7600712715969138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13">
+        <f>EXP(-0.625*$B$4)*B2</f>
+        <v>82.902911818040039</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:W13" si="2">EXP(-0.625*$B$4)*C2</f>
+        <v>165.80582363608008</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>248.7087354541201</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>331.61164727216016</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>414.51455909020018</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>497.4174709082402</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>414.51455909020018</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>331.61164727216016</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>290.16019136314014</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>248.7087354541201</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>165.80582363608008</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>124.35436772706005</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>82.902911818040039</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>82.902911818040039</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>82.902911818040039</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>82.902911818040039</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>41.451455909020019</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>41.451455909020019</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>41.451455909020019</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>41.451455909020019</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>20.72572795451001</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>20.72572795451001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14">
+        <f>B13*B6</f>
+        <v>82.902911818040039</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:W14" si="3">C13*C6</f>
+        <v>165.80582363608008</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>248.7087354541201</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>331.61164727216016</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>414.51455909020018</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>497.4174709082402</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>414.51455909020018</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>265.28931781772815</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>174.09611481788409</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>99.483494181648041</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>66.322329454432037</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>49.74174709082402</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>24.87087354541201</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>24.87087354541201</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>16.580582363608009</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="3"/>
+        <v>16.580582363608009</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>8.2902911818040046</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>8.2902911818040046</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="3"/>
+        <v>8.2902911818040046</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="3"/>
+        <v>8.2902911818040046</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="3"/>
+        <v>4.1451455909020023</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="3"/>
+        <v>4.1451455909020023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15">
+        <f>EXP(-0.325*$B$4)*B14</f>
+        <v>75.201425431938262</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:W15" si="4">EXP(-0.325*$B$4)*C14</f>
+        <v>150.40285086387652</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>225.6042762958148</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>300.80570172775305</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>376.00712715969132</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>451.2085525916296</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>376.00712715969132</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>240.64456138220248</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>157.92299340707035</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>90.241710518325917</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>60.161140345550621</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>45.120855259162958</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>22.560427629581479</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>22.560427629581479</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>15.040285086387655</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>15.040285086387655</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="4"/>
+        <v>7.5201425431938276</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>7.5201425431938276</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="4"/>
+        <v>7.5201425431938276</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="4"/>
+        <v>7.5201425431938276</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="4"/>
+        <v>3.7600712715969138</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="4"/>
+        <v>3.7600712715969138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f>B21*(1-B22)+B22</f>
+        <v>0.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
@@ -3848,7 +5652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W28"/>
   <sheetViews>
@@ -4479,7 +6283,3044 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:W44"/>
+  <sheetViews>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:W44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
+        <v>2.3606000000000001E-5</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>0.27733400000000002</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.56084E-7</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0.61147300000000004</v>
+      </c>
+      <c r="C3">
+        <v>8.1675499999999998E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7.0608299999999996E-8</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0.105764</v>
+      </c>
+      <c r="C4">
+        <v>0.63908600000000004</v>
+      </c>
+      <c r="D4">
+        <v>4.2290700000000001E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.0443E-8</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>5.27707E-3</v>
+      </c>
+      <c r="C5">
+        <v>0.25459999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.58011900000000005</v>
+      </c>
+      <c r="E5">
+        <v>2.07157E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.45769E-9</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1.2570800000000001E-4</v>
+      </c>
+      <c r="C6">
+        <v>2.3689000000000002E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.33450800000000003</v>
+      </c>
+      <c r="E6">
+        <v>0.49590699999999999</v>
+      </c>
+      <c r="F6">
+        <v>9.5770000000000004E-3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.9232800000000001E-10</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>1.83316E-6</v>
+      </c>
+      <c r="C7">
+        <v>9.2813800000000001E-4</v>
+      </c>
+      <c r="D7">
+        <v>4.10243E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.41264499999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.400088</v>
+      </c>
+      <c r="G7">
+        <v>4.1849799999999996E-3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.4025899999999998E-11</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>1.8844E-8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.0480799999999999E-5</v>
+      </c>
+      <c r="D8">
+        <v>2.0039300000000001E-3</v>
+      </c>
+      <c r="E8">
+        <v>6.6555500000000004E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.48041800000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.30510300000000001</v>
+      </c>
+      <c r="H8">
+        <v>1.7314800000000001E-3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.8481100000000001E-12</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>1.4907999999999999E-10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.0020699999999998E-7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5.3130900000000003E-5</v>
+      </c>
+      <c r="E9">
+        <v>4.0459800000000002E-3</v>
+      </c>
+      <c r="F9">
+        <v>0.101906</v>
+      </c>
+      <c r="G9">
+        <v>0.52868599999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.22029199999999999</v>
+      </c>
+      <c r="I9">
+        <v>6.7980299999999998E-4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.2122700000000002E-13</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.2393100000000001E-9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9.1142299999999997E-7</v>
+      </c>
+      <c r="E10">
+        <v>1.2869800000000001E-4</v>
+      </c>
+      <c r="F10">
+        <v>7.7097199999999998E-3</v>
+      </c>
+      <c r="G10">
+        <v>0.14748600000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.55085399999999995</v>
+      </c>
+      <c r="I10">
+        <v>0.15093500000000001</v>
+      </c>
+      <c r="J10">
+        <v>2.5393600000000002E-4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3.4558499999999999E-14</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.12847E-8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.58042E-6</v>
+      </c>
+      <c r="F11">
+        <v>2.9421999999999999E-4</v>
+      </c>
+      <c r="G11">
+        <v>1.38864E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.202099</v>
+      </c>
+      <c r="I11">
+        <v>0.54464699999999999</v>
+      </c>
+      <c r="J11">
+        <v>9.8391699999999999E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>9.0480800000000003E-5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3.5543000000000002E-15</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.66194E-8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6.8949900000000002E-6</v>
+      </c>
+      <c r="G12">
+        <v>6.3577800000000004E-4</v>
+      </c>
+      <c r="H12">
+        <v>2.3680900000000001E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.26279400000000003</v>
+      </c>
+      <c r="J12">
+        <v>0.512355</v>
+      </c>
+      <c r="K12">
+        <v>6.1181100000000002E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3.0820700000000001E-5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3.5011299999999999E-16</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.12152E-7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.7414500000000001E-5</v>
+      </c>
+      <c r="H13">
+        <v>1.3007699999999999E-3</v>
+      </c>
+      <c r="I13">
+        <v>3.8322099999999998E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.32512099999999999</v>
+      </c>
+      <c r="K13">
+        <v>0.45974500000000001</v>
+      </c>
+      <c r="L13">
+        <v>3.6368900000000003E-2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1.0054999999999999E-5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>3.3082399999999999E-17</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3.2466699999999998E-7</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4.1643800000000003E-5</v>
+      </c>
+      <c r="I14">
+        <v>2.52542E-3</v>
+      </c>
+      <c r="J14">
+        <v>5.9003399999999998E-2</v>
+      </c>
+      <c r="K14">
+        <v>0.38367499999999999</v>
+      </c>
+      <c r="L14">
+        <v>0.39438200000000001</v>
+      </c>
+      <c r="M14">
+        <v>2.0706100000000002E-2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>3.1467299999999999E-6</v>
+      </c>
+      <c r="O14" s="1">
+        <v>3.0029E-18</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>8.8987799999999997E-7</v>
+      </c>
+      <c r="I15" s="1">
+        <v>9.4499499999999999E-5</v>
+      </c>
+      <c r="J15">
+        <v>4.6649400000000002E-3</v>
+      </c>
+      <c r="K15">
+        <v>8.6654999999999996E-2</v>
+      </c>
+      <c r="L15">
+        <v>0.43285000000000001</v>
+      </c>
+      <c r="M15">
+        <v>0.32401999999999997</v>
+      </c>
+      <c r="N15">
+        <v>1.13084E-2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>9.4600199999999998E-7</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2.6234000000000001E-19</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2.3145200000000002E-6</v>
+      </c>
+      <c r="J16">
+        <v>2.04026E-4</v>
+      </c>
+      <c r="K16">
+        <v>8.2195299999999992E-3</v>
+      </c>
+      <c r="L16">
+        <v>0.121665</v>
+      </c>
+      <c r="M16">
+        <v>0.467698</v>
+      </c>
+      <c r="N16">
+        <v>0.25536599999999998</v>
+      </c>
+      <c r="O16">
+        <v>5.9328000000000002E-3</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2.7371700000000002E-7</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2.2369600000000001E-20</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5.7275800000000003E-6</v>
+      </c>
+      <c r="K17">
+        <v>4.2017600000000002E-4</v>
+      </c>
+      <c r="L17">
+        <v>1.38453E-2</v>
+      </c>
+      <c r="M17">
+        <v>0.163603</v>
+      </c>
+      <c r="N17">
+        <v>0.484763</v>
+      </c>
+      <c r="O17">
+        <v>0.19333400000000001</v>
+      </c>
+      <c r="P17">
+        <v>2.9956900000000001E-3</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>7.7300600000000003E-8</v>
+      </c>
+      <c r="R17" s="1">
+        <v>2.12124E-21</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.3519800000000001E-5</v>
+      </c>
+      <c r="L18">
+        <v>8.2724100000000004E-4</v>
+      </c>
+      <c r="M18">
+        <v>2.2336399999999999E-2</v>
+      </c>
+      <c r="N18">
+        <v>0.211035</v>
+      </c>
+      <c r="O18">
+        <v>0.48266900000000001</v>
+      </c>
+      <c r="P18">
+        <v>0.140875</v>
+      </c>
+      <c r="Q18">
+        <v>1.4764000000000001E-3</v>
+      </c>
+      <c r="R18" s="1">
+        <v>2.4277400000000001E-8</v>
+      </c>
+      <c r="S18" s="1">
+        <v>3.7866700000000001E-22</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>3.0508600000000001E-5</v>
+      </c>
+      <c r="M19">
+        <v>1.5598599999999999E-3</v>
+      </c>
+      <c r="N19">
+        <v>3.4566800000000002E-2</v>
+      </c>
+      <c r="O19">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="P19">
+        <v>0.462538</v>
+      </c>
+      <c r="Q19">
+        <v>0.100191</v>
+      </c>
+      <c r="R19">
+        <v>8.0919200000000003E-4</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1.43535E-8</v>
+      </c>
+      <c r="T19" s="1">
+        <v>3.8291300000000001E-22</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>6.5937200000000003E-5</v>
+      </c>
+      <c r="N20">
+        <v>2.8214799999999999E-3</v>
+      </c>
+      <c r="O20">
+        <v>5.1388000000000003E-2</v>
+      </c>
+      <c r="P20">
+        <v>0.31186599999999998</v>
+      </c>
+      <c r="Q20">
+        <v>0.43262800000000001</v>
+      </c>
+      <c r="R20">
+        <v>7.9243300000000003E-2</v>
+      </c>
+      <c r="S20">
+        <v>8.3489700000000003E-4</v>
+      </c>
+      <c r="T20" s="1">
+        <v>4.8071500000000001E-8</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1.3576700000000001E-20</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1.3670199999999999E-4</v>
+      </c>
+      <c r="O21">
+        <v>4.9025700000000002E-3</v>
+      </c>
+      <c r="P21">
+        <v>7.35262E-2</v>
+      </c>
+      <c r="Q21">
+        <v>0.36302299999999998</v>
+      </c>
+      <c r="R21">
+        <v>0.45001000000000002</v>
+      </c>
+      <c r="S21">
+        <v>0.11798599999999999</v>
+      </c>
+      <c r="T21">
+        <v>4.87967E-3</v>
+      </c>
+      <c r="U21" s="1">
+        <v>5.6450600000000001E-6</v>
+      </c>
+      <c r="V21" s="1">
+        <v>7.2616900000000001E-16</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.7225300000000002E-4</v>
+      </c>
+      <c r="P22">
+        <v>8.1987799999999993E-3</v>
+      </c>
+      <c r="Q22">
+        <v>0.10268099999999999</v>
+      </c>
+      <c r="R22">
+        <v>0.46993800000000002</v>
+      </c>
+      <c r="S22">
+        <v>0.88117900000000005</v>
+      </c>
+      <c r="T22">
+        <v>0.99512</v>
+      </c>
+      <c r="U22">
+        <v>0.99999400000000005</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1.93964E-4</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>0.46182200000000001</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8.3452499999999994E-6</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>0.48474699999999998</v>
+      </c>
+      <c r="C25">
+        <v>0.20669899999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4.9790000000000003E-7</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>5.1423499999999997E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.64465300000000003</v>
+      </c>
+      <c r="D26">
+        <v>8.4154199999999998E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5.0836300000000001E-7</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1.7808800000000001E-3</v>
+      </c>
+      <c r="C27">
+        <v>0.14011799999999999</v>
+      </c>
+      <c r="D27">
+        <v>0.64101200000000003</v>
+      </c>
+      <c r="E27">
+        <v>8.4751499999999994E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5.0836199999999998E-7</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>3.1694299999999999E-5</v>
+      </c>
+      <c r="C28">
+        <v>8.2917400000000006E-3</v>
+      </c>
+      <c r="D28">
+        <v>0.250884</v>
+      </c>
+      <c r="E28">
+        <v>0.641455</v>
+      </c>
+      <c r="F28">
+        <v>8.4751400000000005E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5.0836199999999998E-7</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>3.6258299999999999E-7</v>
+      </c>
+      <c r="C29">
+        <v>2.2635099999999999E-4</v>
+      </c>
+      <c r="D29">
+        <v>2.3036500000000001E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.25000499999999998</v>
+      </c>
+      <c r="F29">
+        <v>0.641455</v>
+      </c>
+      <c r="G29">
+        <v>8.4751400000000005E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5.0836099999999996E-7</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>3.0274899999999999E-9</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3.6972099999999998E-6</v>
+      </c>
+      <c r="D30">
+        <v>8.9309000000000003E-4</v>
+      </c>
+      <c r="E30">
+        <v>2.2883799999999999E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.25000499999999998</v>
+      </c>
+      <c r="G30">
+        <v>0.641455</v>
+      </c>
+      <c r="H30">
+        <v>8.4751400000000005E-2</v>
+      </c>
+      <c r="I30" s="1">
+        <v>5.0836000000000003E-7</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>1.9968799999999999E-11</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4.1883200000000003E-8</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.9534900000000002E-5</v>
+      </c>
+      <c r="E31">
+        <v>8.84949E-4</v>
+      </c>
+      <c r="F31">
+        <v>2.2883799999999999E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.25000499999999998</v>
+      </c>
+      <c r="H31">
+        <v>0.641455</v>
+      </c>
+      <c r="I31">
+        <v>8.4751300000000002E-2</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5.0836000000000003E-7</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3.60736E-10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2.8419299999999998E-7</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.93164E-5</v>
+      </c>
+      <c r="F32">
+        <v>8.84949E-4</v>
+      </c>
+      <c r="G32">
+        <v>2.2883799999999999E-2</v>
+      </c>
+      <c r="H32">
+        <v>0.25000499999999998</v>
+      </c>
+      <c r="I32">
+        <v>0.641455</v>
+      </c>
+      <c r="J32">
+        <v>8.4751300000000002E-2</v>
+      </c>
+      <c r="K32" s="1">
+        <v>5.0835900000000001E-7</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.04638E-9</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.8051299999999999E-7</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.93165E-5</v>
+      </c>
+      <c r="G33">
+        <v>8.8495000000000002E-4</v>
+      </c>
+      <c r="H33">
+        <v>2.2883799999999999E-2</v>
+      </c>
+      <c r="I33">
+        <v>0.25000499999999998</v>
+      </c>
+      <c r="J33">
+        <v>0.641455</v>
+      </c>
+      <c r="K33">
+        <v>8.4751300000000002E-2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>5.0835900000000001E-7</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3.0022400000000002E-9</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2.8051400000000002E-7</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.93165E-5</v>
+      </c>
+      <c r="H34">
+        <v>8.8495000000000002E-4</v>
+      </c>
+      <c r="I34">
+        <v>2.2883799999999999E-2</v>
+      </c>
+      <c r="J34">
+        <v>0.25000499999999998</v>
+      </c>
+      <c r="K34">
+        <v>0.641455</v>
+      </c>
+      <c r="L34">
+        <v>8.4751199999999999E-2</v>
+      </c>
+      <c r="M34" s="1">
+        <v>5.0835799999999998E-7</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3.0022400000000002E-9</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2.8051400000000002E-7</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1.93165E-5</v>
+      </c>
+      <c r="I35">
+        <v>8.8495100000000003E-4</v>
+      </c>
+      <c r="J35">
+        <v>2.2883799999999999E-2</v>
+      </c>
+      <c r="K35">
+        <v>0.25000499999999998</v>
+      </c>
+      <c r="L35">
+        <v>0.641455</v>
+      </c>
+      <c r="M35">
+        <v>8.4751199999999999E-2</v>
+      </c>
+      <c r="N35" s="1">
+        <v>5.0835799999999998E-7</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3.0022400000000002E-9</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2.8051400000000002E-7</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.93165E-5</v>
+      </c>
+      <c r="J36">
+        <v>8.8495100000000003E-4</v>
+      </c>
+      <c r="K36">
+        <v>2.2883799999999999E-2</v>
+      </c>
+      <c r="L36">
+        <v>0.25000499999999998</v>
+      </c>
+      <c r="M36">
+        <v>0.641455</v>
+      </c>
+      <c r="N36">
+        <v>8.4751199999999999E-2</v>
+      </c>
+      <c r="O36" s="1">
+        <v>5.0835699999999995E-7</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3.0022400000000002E-9</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2.8051400000000002E-7</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1.93165E-5</v>
+      </c>
+      <c r="K37">
+        <v>8.8495100000000003E-4</v>
+      </c>
+      <c r="L37">
+        <v>2.2883799999999999E-2</v>
+      </c>
+      <c r="M37">
+        <v>0.25000499999999998</v>
+      </c>
+      <c r="N37">
+        <v>0.641455</v>
+      </c>
+      <c r="O37">
+        <v>8.4751199999999999E-2</v>
+      </c>
+      <c r="P37" s="1">
+        <v>5.0835699999999995E-7</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>3.0022400000000002E-9</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2.8051400000000002E-7</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1.93165E-5</v>
+      </c>
+      <c r="L38">
+        <v>8.8495200000000005E-4</v>
+      </c>
+      <c r="M38">
+        <v>2.2883799999999999E-2</v>
+      </c>
+      <c r="N38">
+        <v>0.25000499999999998</v>
+      </c>
+      <c r="O38">
+        <v>0.641455</v>
+      </c>
+      <c r="P38">
+        <v>8.4751099999999996E-2</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>5.0835600000000003E-7</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>3.00225E-9</v>
+      </c>
+      <c r="K39" s="1">
+        <v>2.8051499999999999E-7</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1.93165E-5</v>
+      </c>
+      <c r="M39">
+        <v>8.8495200000000005E-4</v>
+      </c>
+      <c r="N39">
+        <v>2.2883799999999999E-2</v>
+      </c>
+      <c r="O39">
+        <v>0.25000499999999998</v>
+      </c>
+      <c r="P39">
+        <v>0.641455</v>
+      </c>
+      <c r="Q39">
+        <v>8.4751099999999996E-2</v>
+      </c>
+      <c r="R39" s="1">
+        <v>5.0836599999999999E-7</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>3.00225E-9</v>
+      </c>
+      <c r="L40" s="1">
+        <v>2.8051499999999999E-7</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1.93165E-5</v>
+      </c>
+      <c r="N40">
+        <v>8.8495299999999995E-4</v>
+      </c>
+      <c r="O40">
+        <v>2.2883899999999999E-2</v>
+      </c>
+      <c r="P40">
+        <v>0.25000499999999998</v>
+      </c>
+      <c r="Q40">
+        <v>0.641455</v>
+      </c>
+      <c r="R40">
+        <v>8.47527E-2</v>
+      </c>
+      <c r="S40" s="1">
+        <v>5.0881499999999999E-7</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>3.00225E-9</v>
+      </c>
+      <c r="M41" s="1">
+        <v>2.8051499999999999E-7</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1.93165E-5</v>
+      </c>
+      <c r="O41">
+        <v>8.8495299999999995E-4</v>
+      </c>
+      <c r="P41">
+        <v>2.2883899999999999E-2</v>
+      </c>
+      <c r="Q41">
+        <v>0.25000499999999998</v>
+      </c>
+      <c r="R41">
+        <v>0.64146700000000001</v>
+      </c>
+      <c r="S41">
+        <v>8.4827799999999995E-2</v>
+      </c>
+      <c r="T41" s="1">
+        <v>5.2074200000000004E-7</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>3.00225E-9</v>
+      </c>
+      <c r="N42" s="1">
+        <v>2.8051499999999999E-7</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1.9316600000000001E-5</v>
+      </c>
+      <c r="P42">
+        <v>8.8495299999999995E-4</v>
+      </c>
+      <c r="Q42">
+        <v>2.2883899999999999E-2</v>
+      </c>
+      <c r="R42">
+        <v>0.25001000000000001</v>
+      </c>
+      <c r="S42">
+        <v>0.64203600000000005</v>
+      </c>
+      <c r="T42">
+        <v>8.6816199999999996E-2</v>
+      </c>
+      <c r="U42" s="1">
+        <v>7.0001300000000001E-7</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>3.0022599999999999E-9</v>
+      </c>
+      <c r="O43" s="1">
+        <v>2.8051499999999999E-7</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1.9316600000000001E-5</v>
+      </c>
+      <c r="Q43">
+        <v>8.8495399999999997E-4</v>
+      </c>
+      <c r="R43">
+        <v>2.28843E-2</v>
+      </c>
+      <c r="S43">
+        <v>0.25023200000000001</v>
+      </c>
+      <c r="T43">
+        <v>0.65708599999999995</v>
+      </c>
+      <c r="U43">
+        <v>0.116704</v>
+      </c>
+      <c r="V43" s="1">
+        <v>5.99817E-6</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>3.0022599999999999E-9</v>
+      </c>
+      <c r="P44" s="1">
+        <v>2.8051499999999999E-7</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>1.9316600000000001E-5</v>
+      </c>
+      <c r="R44">
+        <v>8.8497200000000004E-4</v>
+      </c>
+      <c r="S44">
+        <v>2.2904600000000001E-2</v>
+      </c>
+      <c r="T44">
+        <v>0.25609700000000002</v>
+      </c>
+      <c r="U44">
+        <v>0.88329599999999997</v>
+      </c>
+      <c r="V44">
+        <v>0.99999400000000005</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -4875,7 +9716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -5018,811 +9859,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>-5.0509224530400001</v>
-      </c>
-      <c r="C2">
-        <v>-4.4990868835800004</v>
-      </c>
-      <c r="D2">
-        <v>-3.9472513562099998</v>
-      </c>
-      <c r="E2">
-        <v>-3.3968185919199998</v>
-      </c>
-      <c r="F2">
-        <v>-2.8650588775600001</v>
-      </c>
-      <c r="G2">
-        <v>-2.39314779537</v>
-      </c>
-      <c r="H2">
-        <v>-2.0162601326799998</v>
-      </c>
-      <c r="I2">
-        <v>-1.7436764784600001</v>
-      </c>
-      <c r="J2">
-        <v>-1.58084559269</v>
-      </c>
-      <c r="K2">
-        <v>-1.4798019142900001</v>
-      </c>
-      <c r="L2">
-        <v>-1.4413909923399999</v>
-      </c>
-      <c r="M2">
-        <v>-1.47964013648</v>
-      </c>
-      <c r="N2">
-        <v>-1.49522035469</v>
-      </c>
-      <c r="O2">
-        <v>-1.3685649843300001</v>
-      </c>
-      <c r="P2">
-        <v>-1.0269771030399999</v>
-      </c>
-      <c r="Q2">
-        <v>-0.47399226759399998</v>
-      </c>
-      <c r="R2" s="1">
-        <v>-1.11184377261E-8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>-5.0884027325499996</v>
-      </c>
-      <c r="C4">
-        <v>-3.9641876299800001</v>
-      </c>
-      <c r="D4">
-        <v>-2.8399732182499999</v>
-      </c>
-      <c r="E4">
-        <v>-1.7284011397200001</v>
-      </c>
-      <c r="F4">
-        <v>-0.76188177604899998</v>
-      </c>
-      <c r="G4">
-        <v>-0.25338532151900001</v>
-      </c>
-      <c r="H4">
-        <v>-0.20827536599499999</v>
-      </c>
-      <c r="I4">
-        <v>-0.17053475641099999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <f>EXP(B2)</f>
-        <v>6.4034238632099802E-3</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:R6" si="0">EXP(C2)</f>
-        <v>1.111914497803947E-2</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1.9307698893583771E-2</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>3.3479613021676541E-2</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>5.6979776203077807E-2</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>9.1341705868550879E-2</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0.13315250777633411</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0.17487628840269015</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>0.20580100078564562</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>0.22768278462325184</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>0.23659842308940648</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>0.22771962162514731</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0.22419919594268597</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>0.25447186878422667</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>0.35808778861782004</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>0.62251206606511145</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="0"/>
-        <v>0.99999998888156238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <f t="shared" ref="B8:R8" si="1">EXP(B4)</f>
-        <v>6.1678637514402598E-3</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>1.8983451937338275E-2</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>5.8427230727033715E-2</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.17756808969293042</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0.46678721103187321</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>0.77616874967478688</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>0.81198341330368307</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0.84321378203453368</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>27.5</v>
-      </c>
-      <c r="B11">
-        <v>6.4034238632099802E-3</v>
-      </c>
-      <c r="C11">
-        <v>6.1678637514402598E-3</v>
-      </c>
-      <c r="F11">
-        <v>6.1678599999999998E-3</v>
-      </c>
-      <c r="G11">
-        <v>1.89835E-2</v>
-      </c>
-      <c r="H11">
-        <v>5.8427199999999999E-2</v>
-      </c>
-      <c r="I11">
-        <v>0.177568</v>
-      </c>
-      <c r="J11">
-        <v>0.46678700000000001</v>
-      </c>
-      <c r="K11">
-        <v>0.776169</v>
-      </c>
-      <c r="L11">
-        <v>0.81198300000000001</v>
-      </c>
-      <c r="M11">
-        <v>0.84321400000000002</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AA11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>32.5</v>
-      </c>
-      <c r="B12">
-        <v>1.111914497803947E-2</v>
-      </c>
-      <c r="C12">
-        <v>1.8983451937338275E-2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>37.5</v>
-      </c>
-      <c r="B13">
-        <v>1.9307698893583771E-2</v>
-      </c>
-      <c r="C13">
-        <v>5.8427230727033715E-2</v>
-      </c>
-      <c r="F13">
-        <v>6.4034199999999999E-3</v>
-      </c>
-      <c r="G13">
-        <v>1.11191E-2</v>
-      </c>
-      <c r="H13">
-        <v>1.9307700000000001E-2</v>
-      </c>
-      <c r="I13">
-        <v>3.3479599999999998E-2</v>
-      </c>
-      <c r="J13">
-        <v>5.6979799999999997E-2</v>
-      </c>
-      <c r="K13">
-        <v>9.1341699999999998E-2</v>
-      </c>
-      <c r="L13">
-        <v>0.13315299999999999</v>
-      </c>
-      <c r="M13">
-        <v>0.174876</v>
-      </c>
-      <c r="N13">
-        <v>0.20580100000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.227683</v>
-      </c>
-      <c r="P13">
-        <v>0.236598</v>
-      </c>
-      <c r="Q13">
-        <v>0.22772000000000001</v>
-      </c>
-      <c r="R13">
-        <v>0.22419900000000001</v>
-      </c>
-      <c r="S13">
-        <v>0.25447199999999998</v>
-      </c>
-      <c r="T13">
-        <v>0.35808800000000002</v>
-      </c>
-      <c r="U13">
-        <v>0.62251199999999995</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="Z13">
-        <v>1</v>
-      </c>
-      <c r="AA13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>42.5</v>
-      </c>
-      <c r="B14">
-        <v>3.3479613021676541E-2</v>
-      </c>
-      <c r="C14">
-        <v>0.17756808969293042</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>47.5</v>
-      </c>
-      <c r="B15">
-        <v>5.6979776203077807E-2</v>
-      </c>
-      <c r="C15">
-        <v>0.46678721103187321</v>
-      </c>
-      <c r="E15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>52.5</v>
-      </c>
-      <c r="B16">
-        <v>9.1341705868550879E-2</v>
-      </c>
-      <c r="C16">
-        <v>0.77616874967478688</v>
-      </c>
-      <c r="E16">
-        <v>6.4034199999999999E-3</v>
-      </c>
-      <c r="F16">
-        <v>6.1678599999999998E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>57.5</v>
-      </c>
-      <c r="B17">
-        <v>0.13315250777633411</v>
-      </c>
-      <c r="C17">
-        <v>0.81198341330368307</v>
-      </c>
-      <c r="E17">
-        <v>1.11191E-2</v>
-      </c>
-      <c r="F17">
-        <v>1.89835E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>62.5</v>
-      </c>
-      <c r="B18">
-        <v>0.17487628840269015</v>
-      </c>
-      <c r="C18">
-        <v>0.84321378203453368</v>
-      </c>
-      <c r="E18">
-        <v>1.9307700000000001E-2</v>
-      </c>
-      <c r="F18">
-        <v>5.8427199999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>67.5</v>
-      </c>
-      <c r="B19">
-        <v>0.20580100078564562</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>3.3479599999999998E-2</v>
-      </c>
-      <c r="F19">
-        <v>0.177568</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>72.5</v>
-      </c>
-      <c r="B20">
-        <v>0.22768278462325184</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>5.6979799999999997E-2</v>
-      </c>
-      <c r="F20">
-        <v>0.46678700000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>77.5</v>
-      </c>
-      <c r="B21">
-        <v>0.23659842308940648</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>9.1341699999999998E-2</v>
-      </c>
-      <c r="F21">
-        <v>0.776169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>82.5</v>
-      </c>
-      <c r="B22">
-        <v>0.22771962162514731</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0.13315299999999999</v>
-      </c>
-      <c r="F22">
-        <v>0.81198300000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>87.5</v>
-      </c>
-      <c r="B23">
-        <v>0.22419919594268597</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0.174876</v>
-      </c>
-      <c r="F23">
-        <v>0.84321400000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>92.5</v>
-      </c>
-      <c r="B24">
-        <v>0.25447186878422667</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0.20580100000000001</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>97.5</v>
-      </c>
-      <c r="B25">
-        <v>0.35808778861782004</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0.227683</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>102.5</v>
-      </c>
-      <c r="B26">
-        <v>0.62251206606511145</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0.236598</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>107.5</v>
-      </c>
-      <c r="B27">
-        <v>0.99999998888156238</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0.22772000000000001</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>112.5</v>
-      </c>
-      <c r="B28">
-        <v>0.99999998888156238</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0.22419900000000001</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>117.5</v>
-      </c>
-      <c r="B29">
-        <v>0.99999998888156238</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0.25447199999999998</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>122.5</v>
-      </c>
-      <c r="B30">
-        <v>0.99999998888156238</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0.35808800000000002</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>127.5</v>
-      </c>
-      <c r="B31">
-        <v>0.99999998888156238</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0.62251199999999995</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>132.5</v>
-      </c>
-      <c r="B32">
-        <v>0.99999998888156205</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>